--- a/document/projet_td.xlsx
+++ b/document/projet_td.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vieux\session 3\GÉNIE LOGICIEL-II -CONCEPTION-ET-GESTION\projet_td\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1963411\Documents\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E364BFD-89A7-4A3C-B9FA-1D75A8953019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F6FFB-D1B2-4E72-AFE7-B10DCC618CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="433">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1422,7 +1422,94 @@
     <t>mot de passe</t>
   </si>
   <si>
-    <t>bd</t>
+    <t>Enregistrer</t>
+  </si>
+  <si>
+    <t>Avantageux</t>
+  </si>
+  <si>
+    <t>Subséquentes</t>
+  </si>
+  <si>
+    <t>Localement</t>
+  </si>
+  <si>
+    <t>Inscrire</t>
+  </si>
+  <si>
+    <t>Éditer</t>
+  </si>
+  <si>
+    <t>Impliquer</t>
+  </si>
+  <si>
+    <t>Lire</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Ludique</t>
+  </si>
+  <si>
+    <t>Partenaire-réseau</t>
+  </si>
+  <si>
+    <t>Compléter</t>
+  </si>
+  <si>
+    <t>Constrainte</t>
+  </si>
+  <si>
+    <t>Maximal</t>
+  </si>
+  <si>
+    <t>Limité</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Réduction</t>
+  </si>
+  <si>
+    <t>Gratuit</t>
+  </si>
+  <si>
+    <t>Coût</t>
+  </si>
+  <si>
+    <t>Coûteuse</t>
+  </si>
+  <si>
+    <t>S'enrichir</t>
+  </si>
+  <si>
+    <t>Mutuellement</t>
+  </si>
+  <si>
+    <t>Sélectionner</t>
+  </si>
+  <si>
+    <t>Barrière</t>
+  </si>
+  <si>
+    <t>Intensité</t>
+  </si>
+  <si>
+    <t>Pertinent</t>
+  </si>
+  <si>
+    <t>Cibler</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Proche</t>
+  </si>
+  <si>
+    <t>Éloigné</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1521,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1527,9 +1614,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1553,7 +1640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1759,17 +1846,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1777,41 +1853,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2146,12 +2187,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2193,15 +2328,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2214,10 +2340,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2234,28 +2360,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,21 +2389,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2293,16 +2419,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2318,10 +2444,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,24 +2458,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2387,37 +2513,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2442,44 +2572,53 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2817,11 +2956,9 @@
   </sheetPr>
   <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
@@ -2834,7 +2971,7 @@
     <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1">
+    <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2845,69 +2982,69 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1">
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="110"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1">
+      <c r="H3" s="103"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-    </row>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-    </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="108"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" customHeight="1">
+    <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="108"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" customHeight="1">
+    <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -2915,21 +3052,21 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" customHeight="1">
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="108"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" customHeight="1">
+    <row r="11" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
@@ -2937,7 +3074,7 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -2946,18 +3083,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" customHeight="1">
+    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="108"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" customHeight="1">
+    <row r="13" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -2965,23 +3102,23 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" customHeight="1">
+    <row r="14" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="108"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" customHeight="1">
+    <row r="15" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -2989,34 +3126,34 @@
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B16" s="35"/>
-      <c r="C16" s="110"/>
+    <row r="16" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="28"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="28"/>
       <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="110" t="s">
+    <row r="18" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="28"/>
+      <c r="C18" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
@@ -3024,96 +3161,96 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="110"/>
+    <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="28"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="35"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B20" s="35"/>
-      <c r="C20" s="110"/>
+    <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="28"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="28"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B21" s="35"/>
-      <c r="C21" s="110" t="s">
+    <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="28"/>
+      <c r="C21" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="28"/>
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B22" s="35"/>
-      <c r="C22" s="110"/>
+    <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="28"/>
       <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B23" s="35"/>
-      <c r="C23" s="110"/>
+    <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="28"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="110" t="s">
+    <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="28"/>
+      <c r="C24" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="28"/>
       <c r="H24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B25" s="35"/>
-      <c r="C25" s="110"/>
+    <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="28"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="110"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="28"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B26" s="35"/>
-      <c r="C26" s="108"/>
+    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="28"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
@@ -3121,31 +3258,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B27" s="35"/>
-      <c r="C27" s="108"/>
+    <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="28"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="35"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="28"/>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B28" s="99" t="s">
+    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="9"/>
       <c r="H28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" customHeight="1">
+    <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
@@ -3153,19 +3290,19 @@
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="110"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B30" s="35"/>
-      <c r="C30" s="108"/>
+    <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="28"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
@@ -3173,89 +3310,89 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="130"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-    </row>
-    <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-    </row>
-    <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-    </row>
-    <row r="39" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-    </row>
-    <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="130"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-    </row>
-    <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-    </row>
-    <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-    </row>
-    <row r="43" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-    </row>
-    <row r="44" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-    </row>
-    <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="130"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-    </row>
-    <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
-    </row>
-    <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-    </row>
-    <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-    </row>
-    <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
+    <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="127"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+    </row>
+    <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+    </row>
+    <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+    </row>
+    <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+    </row>
+    <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+    </row>
+    <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+    </row>
+    <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+    </row>
+    <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+    </row>
+    <row r="44" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+    </row>
+    <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="127"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+    </row>
+    <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+    </row>
+    <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+    </row>
+    <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+    </row>
+    <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3272,13 +3409,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E165"/>
+  <dimension ref="B2:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -3286,1521 +3423,1626 @@
     <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
+    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="103"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-    </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B3" s="110"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-    </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+    </row>
+    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="103"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+    </row>
+    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-    </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+    </row>
+    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-    </row>
-    <row r="6" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+    </row>
+    <row r="6" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-    </row>
-    <row r="7" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+    </row>
+    <row r="7" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-    </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B9" s="110"/>
-      <c r="C9" s="110" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+    </row>
+    <row r="12" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="158" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="142" t="s">
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="143" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="151">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="147"/>
+      <c r="C14" s="137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="141" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="147"/>
+      <c r="C15" s="139" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="147"/>
+      <c r="C16" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="147"/>
+      <c r="C17" s="139" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="147"/>
+      <c r="C18" s="137" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="147"/>
+      <c r="C19" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="147"/>
+      <c r="C20" s="139" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="147"/>
+      <c r="C21" s="139" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="147"/>
+      <c r="C22" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="147"/>
+      <c r="C23" s="139" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="147"/>
+      <c r="C24" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="141" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="147"/>
+      <c r="C25" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="138" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="141" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="147"/>
+      <c r="C26" s="139" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="141" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="147"/>
+      <c r="C27" s="139" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="147"/>
+      <c r="C28" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="147"/>
+      <c r="C29" s="137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" s="141" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="147"/>
+      <c r="C30" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="141" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="147"/>
+      <c r="C31" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="126" t="s">
+        <v>414</v>
+      </c>
+      <c r="E31" s="140" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="147"/>
+      <c r="C32" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="141" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="147"/>
+      <c r="C33" s="139" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="126" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="147"/>
+      <c r="C34" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="141" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="147"/>
+      <c r="C35" s="139" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="147"/>
+      <c r="C36" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="138" t="s">
+        <v>327</v>
+      </c>
+      <c r="E36" s="140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="147"/>
+      <c r="C37" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="141" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="147"/>
+      <c r="C38" s="139" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="147"/>
+      <c r="C39" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="141" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="147"/>
+      <c r="C40" s="139" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="126" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="147"/>
+      <c r="C41" s="139" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" s="140" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="147"/>
+      <c r="C42" s="139" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="147"/>
+      <c r="C43" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="126" t="s">
+        <v>361</v>
+      </c>
+      <c r="E43" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="147"/>
+      <c r="C44" s="137" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="147"/>
+      <c r="C45" s="139" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="147"/>
+      <c r="C46" s="137" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="147"/>
+      <c r="C47" s="139" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="126" t="s">
+        <v>403</v>
+      </c>
+      <c r="E47" s="141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="147"/>
+      <c r="C48" s="139" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" s="140" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="147"/>
+      <c r="C49" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="140" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="147"/>
+      <c r="C50" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="147"/>
+      <c r="C51" s="139" t="s">
+        <v>384</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="E51" s="141" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="147"/>
+      <c r="C52" s="139" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="E52" s="141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="147"/>
+      <c r="C53" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="141" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="147"/>
+      <c r="C54" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="147"/>
+      <c r="C55" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="D55" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="147"/>
+      <c r="C56" s="139" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="126" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" s="141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="147"/>
+      <c r="C57" s="139" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="140" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="147"/>
+      <c r="C58" s="139" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="E58" s="141" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="147"/>
+      <c r="C59" s="139" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="126" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="140" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="147"/>
+      <c r="C60" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="153" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="141" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="147"/>
+      <c r="C61" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="140" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="147"/>
+      <c r="C62" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="126" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="147"/>
+      <c r="C63" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="126" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="147"/>
+      <c r="C64" s="139" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="140" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="147"/>
+      <c r="C65" s="139" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="126" t="s">
+        <v>397</v>
+      </c>
+      <c r="E65" s="141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="147"/>
+      <c r="C66" s="139" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="E66" s="141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="147"/>
+      <c r="C67" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="147"/>
+      <c r="C68" s="137" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="147"/>
+      <c r="C69" s="139" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="126" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="141" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="147"/>
+      <c r="C70" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="138" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="141" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="147"/>
+      <c r="C71" s="137" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="141" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="147"/>
+      <c r="C72" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="147"/>
+      <c r="C73" s="139" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73" s="140" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="147"/>
+      <c r="C74" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="141" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="147"/>
+      <c r="C75" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="141" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="147"/>
+      <c r="C76" s="137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="147"/>
+      <c r="C77" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="147"/>
+      <c r="C78" s="137" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" s="140" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="147"/>
+      <c r="C79" s="139" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" s="138" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="141" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="147"/>
+      <c r="C80" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="147"/>
+      <c r="C81" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="148"/>
+      <c r="C82" s="137" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="141" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="148"/>
+      <c r="C83" s="139" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="140" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="148"/>
+      <c r="C84" s="139" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="141" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="148"/>
+      <c r="C85" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="148"/>
+      <c r="C86" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="141" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="148"/>
+      <c r="C87" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="126" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="148"/>
+      <c r="C88" s="137" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="E88" s="141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="148"/>
+      <c r="C89" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="148"/>
+      <c r="C90" s="137" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="126" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="141"/>
+    </row>
+    <row r="91" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="148"/>
+      <c r="C91" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="141"/>
+    </row>
+    <row r="92" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="148"/>
+      <c r="C92" s="137" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="141"/>
+    </row>
+    <row r="93" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="148"/>
+      <c r="C93" s="139" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="141"/>
+    </row>
+    <row r="94" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="148"/>
+      <c r="C94" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="141"/>
+    </row>
+    <row r="95" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="148"/>
+      <c r="C95" s="139" t="s">
+        <v>413</v>
+      </c>
+      <c r="D95" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" s="141"/>
+    </row>
+    <row r="96" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="148"/>
+      <c r="C96" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="126"/>
+      <c r="E96" s="141"/>
+    </row>
+    <row r="97" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="148"/>
+      <c r="C97" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" s="126"/>
+      <c r="E97" s="141"/>
+    </row>
+    <row r="98" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="148"/>
+      <c r="C98" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="126"/>
+      <c r="E98" s="141"/>
+    </row>
+    <row r="99" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="148"/>
+      <c r="C99" s="139" t="s">
+        <v>360</v>
+      </c>
+      <c r="D99" s="126"/>
+      <c r="E99" s="141"/>
+    </row>
+    <row r="100" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="148"/>
+      <c r="C100" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="126"/>
+      <c r="E100" s="141"/>
+    </row>
+    <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="148"/>
+      <c r="C101" s="139" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="126"/>
+      <c r="E101" s="141"/>
+    </row>
+    <row r="102" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="148"/>
+      <c r="C102" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="126"/>
+      <c r="E102" s="141"/>
+    </row>
+    <row r="103" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="148"/>
+      <c r="C103" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="D103" s="126"/>
+      <c r="E103" s="141"/>
+    </row>
+    <row r="104" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="148"/>
+      <c r="C104" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="126"/>
+      <c r="E104" s="141"/>
+    </row>
+    <row r="105" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="148"/>
+      <c r="C105" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="126"/>
+      <c r="E105" s="141"/>
+    </row>
+    <row r="106" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="148"/>
+      <c r="C106" s="139" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" s="154"/>
+      <c r="E106" s="141"/>
+    </row>
+    <row r="107" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="148"/>
+      <c r="C107" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="126"/>
+      <c r="E107" s="141"/>
+    </row>
+    <row r="108" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="148"/>
+      <c r="C108" s="137" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" s="126"/>
+      <c r="E108" s="141"/>
+    </row>
+    <row r="109" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="148"/>
+      <c r="C109" s="137" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" s="126"/>
+      <c r="E109" s="141"/>
+    </row>
+    <row r="110" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="148"/>
+      <c r="C110" s="139" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="126"/>
+      <c r="E110" s="141"/>
+    </row>
+    <row r="111" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="148"/>
+      <c r="C111" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="126"/>
+      <c r="E111" s="141"/>
+    </row>
+    <row r="112" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="148"/>
+      <c r="C112" s="137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D112" s="126"/>
+      <c r="E112" s="141"/>
+    </row>
+    <row r="113" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="148"/>
+      <c r="C113" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="126"/>
+      <c r="E113" s="141"/>
+    </row>
+    <row r="114" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="148"/>
+      <c r="C114" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="126"/>
+      <c r="E114" s="141"/>
+    </row>
+    <row r="115" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="148"/>
+      <c r="C115" s="137" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="126"/>
+      <c r="E115" s="141"/>
+    </row>
+    <row r="116" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="148"/>
+      <c r="C116" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="126"/>
+      <c r="E116" s="141"/>
+    </row>
+    <row r="117" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="148"/>
+      <c r="C117" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="D117" s="126"/>
+      <c r="E117" s="141"/>
+    </row>
+    <row r="118" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="148"/>
+      <c r="C118" s="139" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" s="126"/>
+      <c r="E118" s="141"/>
+    </row>
+    <row r="119" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="148"/>
+      <c r="C119" s="139" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="126"/>
+      <c r="E119" s="141"/>
+    </row>
+    <row r="120" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="148"/>
+      <c r="C120" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" s="126"/>
+      <c r="E120" s="141"/>
+    </row>
+    <row r="121" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="148"/>
+      <c r="C121" s="139" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" s="126"/>
+      <c r="E121" s="141"/>
+    </row>
+    <row r="122" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="148"/>
+      <c r="C122" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="126"/>
+      <c r="E122" s="141"/>
+    </row>
+    <row r="123" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="148"/>
+      <c r="C123" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="126"/>
+      <c r="E123" s="141"/>
+    </row>
+    <row r="124" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="148"/>
+      <c r="C124" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" s="126"/>
+      <c r="E124" s="141"/>
+    </row>
+    <row r="125" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="148"/>
+      <c r="C125" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="D125" s="126"/>
+      <c r="E125" s="141"/>
+    </row>
+    <row r="126" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="148"/>
+      <c r="C126" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" s="126"/>
+      <c r="E126" s="141"/>
+    </row>
+    <row r="127" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="148"/>
+      <c r="C127" s="137" t="s">
+        <v>237</v>
+      </c>
+      <c r="D127" s="126"/>
+      <c r="E127" s="141"/>
+    </row>
+    <row r="128" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="148"/>
+      <c r="C128" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="126"/>
+      <c r="E128" s="141"/>
+    </row>
+    <row r="129" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="148"/>
+      <c r="C129" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="158" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B14" s="145"/>
-      <c r="C14" s="150" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="153" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="145"/>
-      <c r="C15" s="152" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B16" s="145"/>
-      <c r="C16" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="153" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B17" s="145"/>
-      <c r="C17" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B18" s="145"/>
-      <c r="C18" s="150" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B19" s="145"/>
-      <c r="C19" s="150" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B20" s="145"/>
-      <c r="C20" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="145"/>
-      <c r="C21" s="150" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="153" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22" s="145"/>
-      <c r="C22" s="150" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="153" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="145"/>
-      <c r="C23" s="150" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B24" s="145"/>
-      <c r="C24" s="150" t="s">
+      <c r="D129" s="126"/>
+      <c r="E129" s="141"/>
+    </row>
+    <row r="130" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="148"/>
+      <c r="C130" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="126"/>
+      <c r="E130" s="141"/>
+    </row>
+    <row r="131" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="148"/>
+      <c r="C131" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="126"/>
+      <c r="E131" s="141"/>
+    </row>
+    <row r="132" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="148"/>
+      <c r="C132" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="D132" s="126"/>
+      <c r="E132" s="141"/>
+    </row>
+    <row r="133" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="148"/>
+      <c r="C133" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D133" s="126"/>
+      <c r="E133" s="141"/>
+    </row>
+    <row r="134" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="148"/>
+      <c r="C134" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="D134" s="126"/>
+      <c r="E134" s="141"/>
+    </row>
+    <row r="135" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="148"/>
+      <c r="C135" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="153" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B25" s="145"/>
-      <c r="C25" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="153" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B26" s="145"/>
-      <c r="C26" s="150" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="153" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B27" s="145"/>
-      <c r="C27" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="153" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B28" s="145"/>
-      <c r="C28" s="150" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="153" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="159" t="s">
+      <c r="D135" s="126"/>
+      <c r="E135" s="141"/>
+    </row>
+    <row r="136" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="148"/>
+      <c r="C136" s="139" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B29" s="145"/>
-      <c r="C29" s="150" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="153" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="157" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B30" s="145"/>
-      <c r="C30" s="150" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="153" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B31" s="145"/>
-      <c r="C31" s="150" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="153" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="157" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B32" s="145"/>
-      <c r="C32" s="150" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="153" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="157" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B33" s="145"/>
-      <c r="C33" s="150" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="153" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="157" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B34" s="145"/>
-      <c r="C34" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="153" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="157" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B35" s="145"/>
-      <c r="C35" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="153" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="157" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B36" s="145"/>
-      <c r="C36" s="152" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" s="153" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="159" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B37" s="145"/>
-      <c r="C37" s="152" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="153" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="157" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B38" s="145"/>
-      <c r="C38" s="152" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="153" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="157" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B39" s="145"/>
-      <c r="C39" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="153" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="157" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B40" s="145"/>
-      <c r="C40" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="153" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="157" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B41" s="145"/>
-      <c r="C41" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="153" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="157" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B42" s="145"/>
-      <c r="C42" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="153" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="157" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B43" s="145"/>
-      <c r="C43" s="150" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="153" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="157" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B44" s="145"/>
-      <c r="C44" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="153" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="157" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B45" s="145"/>
-      <c r="C45" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="E45" s="157" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B46" s="145"/>
-      <c r="C46" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E46" s="157" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B47" s="145"/>
-      <c r="C47" s="150" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="157" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B48" s="145"/>
-      <c r="C48" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="157" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B49" s="145"/>
-      <c r="C49" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="E49" s="149" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B50" s="145"/>
-      <c r="C50" s="150" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="162" t="s">
-        <v>285</v>
-      </c>
-      <c r="E50" s="146" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B51" s="145"/>
-      <c r="C51" s="150" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="162" t="s">
-        <v>288</v>
-      </c>
-      <c r="E51" s="146" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B52" s="145"/>
-      <c r="C52" s="150" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E52" s="161" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B53" s="145"/>
-      <c r="C53" s="150" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="149" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B54" s="145"/>
-      <c r="C54" s="150" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E54" s="146" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B55" s="145"/>
-      <c r="C55" s="150" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" s="146" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B56" s="145"/>
-      <c r="C56" s="150" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="146" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B57" s="145"/>
-      <c r="C57" s="150" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="146" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B58" s="145"/>
-      <c r="C58" s="150" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="162" t="s">
-        <v>307</v>
-      </c>
-      <c r="E58" s="161" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B59" s="145"/>
-      <c r="C59" s="150" t="s">
-        <v>237</v>
-      </c>
-      <c r="D59" s="162" t="s">
-        <v>309</v>
-      </c>
-      <c r="E59" s="146" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B60" s="145"/>
-      <c r="C60" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="146" t="s">
-        <v>311</v>
-      </c>
-      <c r="E60" s="161" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B61" s="145"/>
-      <c r="C61" s="150" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="162" t="s">
-        <v>317</v>
-      </c>
-      <c r="E61" s="146" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" s="148" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B62" s="145"/>
-      <c r="C62" s="150" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="162" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="161" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B63" s="145"/>
-      <c r="C63" s="150" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="162" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="161" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B64" s="145"/>
-      <c r="C64" s="150" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" s="146" t="s">
-        <v>327</v>
-      </c>
-      <c r="E64" s="146" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B65" s="145"/>
-      <c r="C65" s="150" t="s">
-        <v>253</v>
-      </c>
-      <c r="D65" s="146" t="s">
-        <v>329</v>
-      </c>
-      <c r="E65" s="146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B66" s="145"/>
-      <c r="C66" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="162" t="s">
-        <v>330</v>
-      </c>
-      <c r="E66" s="146" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B67" s="145"/>
-      <c r="C67" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="162" t="s">
-        <v>331</v>
-      </c>
-      <c r="E67" s="146" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B68" s="145"/>
-      <c r="C68" s="160" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="162" t="s">
-        <v>332</v>
-      </c>
-      <c r="E68" s="146" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B69" s="145"/>
-      <c r="C69" s="160" t="s">
-        <v>284</v>
-      </c>
-      <c r="D69" s="162" t="s">
-        <v>336</v>
-      </c>
-      <c r="E69" s="161" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B70" s="145"/>
-      <c r="C70" s="146" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="162" t="s">
-        <v>337</v>
-      </c>
-      <c r="E70" s="164">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B71" s="145"/>
-      <c r="C71" s="146" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="162" t="s">
-        <v>338</v>
-      </c>
-      <c r="E71" s="146" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B72" s="145"/>
-      <c r="C72" s="143" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="146" t="s">
-        <v>347</v>
-      </c>
-      <c r="E72" s="146" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B73" s="145"/>
-      <c r="C73" s="143" t="s">
-        <v>293</v>
-      </c>
-      <c r="D73" s="146" t="s">
-        <v>349</v>
-      </c>
-      <c r="E73" s="146" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B74" s="145"/>
-      <c r="C74" s="143" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="162" t="s">
-        <v>361</v>
-      </c>
-      <c r="E74" s="146" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B75" s="145"/>
-      <c r="C75" s="143" t="s">
-        <v>295</v>
-      </c>
-      <c r="D75" s="162" t="s">
-        <v>362</v>
-      </c>
-      <c r="E75" s="146" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B76" s="145"/>
-      <c r="C76" s="143" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="162" t="s">
-        <v>364</v>
-      </c>
-      <c r="E76" s="144"/>
-    </row>
-    <row r="77" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B77" s="145"/>
-      <c r="C77" s="143" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="162" t="s">
-        <v>366</v>
-      </c>
-      <c r="E77" s="144"/>
-    </row>
-    <row r="78" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B78" s="145"/>
-      <c r="C78" s="143" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78" s="162" t="s">
-        <v>367</v>
-      </c>
-      <c r="E78" s="144"/>
-    </row>
-    <row r="79" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B79" s="145"/>
-      <c r="C79" s="160" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" s="162" t="s">
-        <v>369</v>
-      </c>
-      <c r="E79" s="144"/>
-    </row>
-    <row r="80" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B80" s="145"/>
-      <c r="C80" s="160" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="162" t="s">
-        <v>372</v>
-      </c>
-      <c r="E80" s="144"/>
-    </row>
-    <row r="81" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B81" s="145"/>
-      <c r="C81" s="160" t="s">
-        <v>308</v>
-      </c>
-      <c r="D81" s="162" t="s">
-        <v>380</v>
-      </c>
-      <c r="E81" s="144"/>
-    </row>
-    <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="132"/>
-      <c r="C82" s="146" t="s">
-        <v>310</v>
-      </c>
-      <c r="D82" s="162" t="s">
-        <v>387</v>
-      </c>
-      <c r="E82" s="38"/>
-    </row>
-    <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="132"/>
-      <c r="C83" s="155" t="s">
-        <v>312</v>
-      </c>
-      <c r="D83" s="162" t="s">
-        <v>394</v>
-      </c>
-      <c r="E83" s="38"/>
-    </row>
-    <row r="84" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B84" s="132"/>
-      <c r="C84" s="146" t="s">
-        <v>316</v>
-      </c>
-      <c r="D84" s="146" t="s">
-        <v>396</v>
-      </c>
-      <c r="E84" s="144"/>
-    </row>
-    <row r="85" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B85" s="132"/>
-      <c r="C85" s="160" t="s">
-        <v>318</v>
-      </c>
-      <c r="D85" s="162" t="s">
-        <v>397</v>
-      </c>
-      <c r="E85" s="144"/>
-    </row>
-    <row r="86" spans="2:5" s="143" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B86" s="132"/>
-      <c r="C86" s="146" t="s">
-        <v>319</v>
-      </c>
-      <c r="D86" s="146" t="s">
-        <v>400</v>
-      </c>
-      <c r="E86" s="144"/>
-    </row>
-    <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="132"/>
-      <c r="C87" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="38"/>
-    </row>
-    <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="132"/>
-      <c r="C88" s="146" t="s">
-        <v>325</v>
-      </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="38"/>
-    </row>
-    <row r="89" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B89" s="132"/>
-      <c r="C89" s="146" t="s">
-        <v>326</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="156"/>
-    </row>
-    <row r="90" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B90" s="132"/>
-      <c r="C90" s="146" t="s">
-        <v>328</v>
-      </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="156"/>
-    </row>
-    <row r="91" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B91" s="132"/>
-      <c r="C91" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="156"/>
-    </row>
-    <row r="92" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B92" s="132"/>
-      <c r="C92" s="146" t="s">
-        <v>333</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="156"/>
-    </row>
-    <row r="93" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B93" s="132"/>
-      <c r="C93" s="146" t="s">
-        <v>335</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="156"/>
-    </row>
-    <row r="94" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B94" s="132"/>
-      <c r="C94" s="146" t="s">
-        <v>340</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="156"/>
-    </row>
-    <row r="95" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B95" s="132"/>
-      <c r="C95" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="156"/>
-    </row>
-    <row r="96" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B96" s="132"/>
-      <c r="C96" s="146" t="s">
-        <v>346</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="156"/>
-    </row>
-    <row r="97" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B97" s="132"/>
-      <c r="C97" s="146" t="s">
-        <v>348</v>
-      </c>
-      <c r="D97" s="163"/>
-      <c r="E97" s="156"/>
-    </row>
-    <row r="98" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B98" s="132"/>
-      <c r="C98" s="146" t="s">
-        <v>350</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="156"/>
-    </row>
-    <row r="99" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B99" s="132"/>
-      <c r="C99" s="146" t="s">
-        <v>351</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="156"/>
-    </row>
-    <row r="100" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B100" s="132"/>
-      <c r="C100" s="146" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="156"/>
-    </row>
-    <row r="101" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B101" s="132"/>
-      <c r="C101" s="146" t="s">
-        <v>353</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="38"/>
-    </row>
-    <row r="102" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B102" s="132"/>
-      <c r="C102" s="146" t="s">
-        <v>354</v>
-      </c>
-      <c r="D102" s="16"/>
-      <c r="E102" s="156"/>
-    </row>
-    <row r="103" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B103" s="132"/>
-      <c r="C103" s="146" t="s">
-        <v>355</v>
-      </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="156"/>
-    </row>
-    <row r="104" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B104" s="132"/>
-      <c r="C104" s="146" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="156"/>
-    </row>
-    <row r="105" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B105" s="132"/>
-      <c r="C105" s="146" t="s">
-        <v>196</v>
-      </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="156"/>
-    </row>
-    <row r="106" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B106" s="132"/>
-      <c r="C106" s="146" t="s">
-        <v>360</v>
-      </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="156"/>
-    </row>
-    <row r="107" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B107" s="132"/>
-      <c r="C107" s="146" t="s">
-        <v>363</v>
-      </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="156"/>
-    </row>
-    <row r="108" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B108" s="132"/>
-      <c r="C108" s="146" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108" s="16"/>
-      <c r="E108" s="156"/>
-    </row>
-    <row r="109" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B109" s="132"/>
-      <c r="C109" s="146" t="s">
-        <v>368</v>
-      </c>
-      <c r="D109" s="16"/>
-      <c r="E109" s="156"/>
-    </row>
-    <row r="110" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B110" s="132"/>
-      <c r="C110" s="146" t="s">
-        <v>370</v>
-      </c>
-      <c r="D110" s="16"/>
-      <c r="E110" s="156"/>
-    </row>
-    <row r="111" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B111" s="132"/>
-      <c r="C111" s="146" t="s">
-        <v>371</v>
-      </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="156"/>
-    </row>
-    <row r="112" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B112" s="132"/>
-      <c r="C112" s="146" t="s">
+      <c r="D136" s="126"/>
+      <c r="E136" s="141"/>
+    </row>
+    <row r="137" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="148"/>
+      <c r="C137" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="D112" s="16"/>
-      <c r="E112" s="156"/>
-    </row>
-    <row r="113" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B113" s="132"/>
-      <c r="C113" s="146" t="s">
-        <v>374</v>
-      </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="156"/>
-    </row>
-    <row r="114" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B114" s="132"/>
-      <c r="C114" s="146" t="s">
-        <v>375</v>
-      </c>
-      <c r="D114" s="16"/>
-      <c r="E114" s="156"/>
-    </row>
-    <row r="115" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B115" s="132"/>
-      <c r="C115" s="146" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="16"/>
-      <c r="E115" s="156"/>
-    </row>
-    <row r="116" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B116" s="132"/>
-      <c r="C116" s="146" t="s">
-        <v>377</v>
-      </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="156"/>
-    </row>
-    <row r="117" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B117" s="132"/>
-      <c r="C117" s="146" t="s">
-        <v>378</v>
-      </c>
-      <c r="D117" s="16"/>
-      <c r="E117" s="156"/>
-    </row>
-    <row r="118" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B118" s="132"/>
-      <c r="C118" s="146" t="s">
-        <v>381</v>
-      </c>
-      <c r="D118" s="16"/>
-      <c r="E118" s="156"/>
-    </row>
-    <row r="119" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B119" s="132"/>
-      <c r="C119" s="146" t="s">
-        <v>379</v>
-      </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="156"/>
-    </row>
-    <row r="120" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B120" s="132"/>
-      <c r="C120" s="146" t="s">
-        <v>382</v>
-      </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="156"/>
-    </row>
-    <row r="121" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B121" s="132"/>
-      <c r="C121" s="146" t="s">
-        <v>384</v>
-      </c>
-      <c r="D121" s="16"/>
-      <c r="E121" s="156"/>
-    </row>
-    <row r="122" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B122" s="132"/>
-      <c r="C122" s="146" t="s">
-        <v>385</v>
-      </c>
-      <c r="D122" s="16"/>
-      <c r="E122" s="156"/>
-    </row>
-    <row r="123" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B123" s="132"/>
-      <c r="C123" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="156"/>
-    </row>
-    <row r="124" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B124" s="132"/>
-      <c r="C124" s="146" t="s">
-        <v>389</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="156"/>
-    </row>
-    <row r="125" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B125" s="132"/>
-      <c r="C125" s="146" t="s">
-        <v>388</v>
-      </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="156"/>
-    </row>
-    <row r="126" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B126" s="132"/>
-      <c r="C126" s="146" t="s">
-        <v>391</v>
-      </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="156"/>
-    </row>
-    <row r="127" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B127" s="132"/>
-      <c r="C127" s="146" t="s">
-        <v>393</v>
-      </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="156"/>
-    </row>
-    <row r="128" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B128" s="132"/>
-      <c r="C128" s="146" t="s">
-        <v>395</v>
-      </c>
-      <c r="D128" s="16"/>
-      <c r="E128" s="156"/>
-    </row>
-    <row r="129" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B129" s="132"/>
-      <c r="C129" s="146" t="s">
+      <c r="D137" s="126"/>
+      <c r="E137" s="141"/>
+    </row>
+    <row r="138" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="148"/>
+      <c r="C138" s="139" t="s">
         <v>399</v>
       </c>
-      <c r="D129" s="16"/>
-      <c r="E129" s="156"/>
-    </row>
-    <row r="130" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B130" s="132"/>
-      <c r="C130" s="146" t="s">
-        <v>259</v>
-      </c>
-      <c r="D130" s="16"/>
-      <c r="E130" s="156"/>
-    </row>
-    <row r="131" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B131" s="132"/>
-      <c r="C131" s="146" t="s">
-        <v>401</v>
-      </c>
-      <c r="D131" s="16"/>
-      <c r="E131" s="156"/>
-    </row>
-    <row r="132" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B132" s="132"/>
-      <c r="C132" s="146"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="156"/>
-    </row>
-    <row r="133" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B133" s="132"/>
-      <c r="C133" s="146"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="156"/>
-    </row>
-    <row r="134" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B134" s="132"/>
-      <c r="C134" s="146"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="156"/>
-    </row>
-    <row r="135" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B135" s="132"/>
-      <c r="C135" s="146"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="156"/>
-    </row>
-    <row r="136" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B136" s="132"/>
-      <c r="C136" s="146"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="156"/>
-    </row>
-    <row r="137" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B137" s="132"/>
-      <c r="C137" s="146"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="156"/>
-    </row>
-    <row r="138" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B138" s="132"/>
-      <c r="C138" s="146"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="156"/>
-    </row>
-    <row r="139" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B139" s="132"/>
-      <c r="C139" s="146"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="156"/>
-    </row>
-    <row r="140" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B140" s="132"/>
-      <c r="C140" s="146"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="156"/>
-    </row>
-    <row r="141" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B141" s="132"/>
-      <c r="C141" s="146"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="156"/>
-    </row>
-    <row r="142" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B142" s="132"/>
-      <c r="C142" s="146"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="156"/>
-    </row>
-    <row r="143" spans="2:5" s="155" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B143" s="132"/>
-      <c r="C143" s="146"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="156"/>
-    </row>
-    <row r="144" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B144" s="132"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="38"/>
-    </row>
-    <row r="145" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B145" s="132"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="38"/>
-    </row>
-    <row r="146" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B146" s="133"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="17"/>
-    </row>
-    <row r="147" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B147" s="142" t="s">
+      <c r="D138" s="126"/>
+      <c r="E138" s="141"/>
+    </row>
+    <row r="139" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="148"/>
+      <c r="C139" s="139"/>
+      <c r="D139" s="126"/>
+      <c r="E139" s="141"/>
+    </row>
+    <row r="140" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="148"/>
+      <c r="C140" s="139"/>
+      <c r="D140" s="126"/>
+      <c r="E140" s="141"/>
+    </row>
+    <row r="141" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="148"/>
+      <c r="C141" s="139"/>
+      <c r="D141" s="126"/>
+      <c r="E141" s="141"/>
+    </row>
+    <row r="142" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="148"/>
+      <c r="C142" s="139"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="141"/>
+    </row>
+    <row r="143" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="148"/>
+      <c r="C143" s="139"/>
+      <c r="D143" s="126"/>
+      <c r="E143" s="141"/>
+    </row>
+    <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="148"/>
+      <c r="C144" s="139"/>
+      <c r="D144" s="126"/>
+      <c r="E144" s="141"/>
+    </row>
+    <row r="145" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="148"/>
+      <c r="C145" s="139"/>
+      <c r="D145" s="126"/>
+      <c r="E145" s="141"/>
+    </row>
+    <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="148"/>
+      <c r="C146" s="139"/>
+      <c r="D146" s="126"/>
+      <c r="E146" s="141"/>
+    </row>
+    <row r="147" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="148"/>
+      <c r="C147" s="139"/>
+      <c r="D147" s="126"/>
+      <c r="E147" s="141"/>
+    </row>
+    <row r="148" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="148"/>
+      <c r="C148" s="139"/>
+      <c r="D148" s="126"/>
+      <c r="E148" s="141"/>
+    </row>
+    <row r="149" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="148"/>
+      <c r="C149" s="139"/>
+      <c r="D149" s="126"/>
+      <c r="E149" s="141"/>
+    </row>
+    <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="148"/>
+      <c r="C150" s="139"/>
+      <c r="D150" s="126"/>
+      <c r="E150" s="141"/>
+    </row>
+    <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C151" s="143" t="s">
+        <v>411</v>
+      </c>
+      <c r="D151" s="152"/>
+      <c r="E151" s="144"/>
+    </row>
+    <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="148"/>
+      <c r="C152" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="18"/>
-    </row>
-    <row r="148" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B148" s="132"/>
-      <c r="C148" t="s">
-        <v>403</v>
-      </c>
-      <c r="D148" s="16"/>
-      <c r="E148" s="38"/>
-    </row>
-    <row r="149" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B149" s="132"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="38"/>
-    </row>
-    <row r="150" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B150" s="132"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="38"/>
-    </row>
-    <row r="151" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B151" s="132"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="38"/>
-    </row>
-    <row r="152" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B152" s="132"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="38"/>
-    </row>
-    <row r="153" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B153" s="132"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="38"/>
-    </row>
-    <row r="154" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B154" s="132"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="38"/>
-    </row>
-    <row r="155" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B155" s="133"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="17"/>
-    </row>
-    <row r="156" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B156" s="142" t="s">
+      <c r="D152" s="126"/>
+      <c r="E152" s="141"/>
+    </row>
+    <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="148"/>
+      <c r="C153" s="139"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="141"/>
+    </row>
+    <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="148"/>
+      <c r="C154" s="139"/>
+      <c r="D154" s="126"/>
+      <c r="E154" s="141"/>
+    </row>
+    <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="148"/>
+      <c r="C155" s="139"/>
+      <c r="D155" s="126"/>
+      <c r="E155" s="141"/>
+    </row>
+    <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="148"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="126"/>
+      <c r="E156" s="141"/>
+    </row>
+    <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="148"/>
+      <c r="C157" s="139"/>
+      <c r="D157" s="126"/>
+      <c r="E157" s="141"/>
+    </row>
+    <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="148"/>
+      <c r="C158" s="139"/>
+      <c r="D158" s="126"/>
+      <c r="E158" s="141"/>
+    </row>
+    <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="149"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="155"/>
+      <c r="E159" s="142"/>
+    </row>
+    <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="18"/>
-    </row>
-    <row r="157" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B157" s="132"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="38"/>
-    </row>
-    <row r="158" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B158" s="132"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="38"/>
-    </row>
-    <row r="159" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B159" s="132"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="38"/>
-    </row>
-    <row r="160" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B160" s="132"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="38"/>
-    </row>
-    <row r="161" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B161" s="132"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="38"/>
-    </row>
-    <row r="162" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B162" s="132"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="38"/>
-    </row>
-    <row r="163" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B163" s="132"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="38"/>
-    </row>
-    <row r="164" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B164" s="132"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="38"/>
-    </row>
-    <row r="165" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B165" s="133"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="43"/>
+      <c r="C160" s="143"/>
+      <c r="D160" s="152"/>
+      <c r="E160" s="144"/>
+    </row>
+    <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="148"/>
+      <c r="C161" s="139"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="141"/>
+    </row>
+    <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="148"/>
+      <c r="C162" s="139"/>
+      <c r="D162" s="126"/>
+      <c r="E162" s="141"/>
+    </row>
+    <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="148"/>
+      <c r="C163" s="139"/>
+      <c r="D163" s="126"/>
+      <c r="E163" s="141"/>
+    </row>
+    <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="148"/>
+      <c r="C164" s="139"/>
+      <c r="D164" s="126"/>
+      <c r="E164" s="141"/>
+    </row>
+    <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="148"/>
+      <c r="C165" s="139"/>
+      <c r="D165" s="126"/>
+      <c r="E165" s="141"/>
+    </row>
+    <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="148"/>
+      <c r="C166" s="139"/>
+      <c r="D166" s="126"/>
+      <c r="E166" s="141"/>
+    </row>
+    <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="148"/>
+      <c r="C167" s="139"/>
+      <c r="D167" s="126"/>
+      <c r="E167" s="141"/>
+    </row>
+    <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="148"/>
+      <c r="C168" s="137"/>
+      <c r="D168" s="126"/>
+      <c r="E168" s="141"/>
+    </row>
+    <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="149"/>
+      <c r="C169" s="150"/>
+      <c r="D169" s="155"/>
+      <c r="E169" s="142"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E14:E150">
+    <sortCondition ref="E150"/>
+  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B13:B146"/>
-    <mergeCell ref="B147:B155"/>
-    <mergeCell ref="B156:B165"/>
+    <mergeCell ref="B13:B150"/>
+    <mergeCell ref="B151:B159"/>
+    <mergeCell ref="B160:B169"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -4816,7 +5058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -4827,124 +5069,124 @@
     <col min="7" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B2" s="107"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="100"/>
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-    </row>
-    <row r="3" spans="2:6" ht="56.25" customHeight="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="134" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="2:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="100"/>
+      <c r="C3" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="107"/>
-    </row>
-    <row r="4" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B4" s="108"/>
-      <c r="C4" s="135" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="100"/>
+    </row>
+    <row r="4" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101"/>
+      <c r="C4" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="108"/>
-    </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1">
-      <c r="B5" s="107"/>
-      <c r="C5" s="22" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="101"/>
+    </row>
+    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="100"/>
+      <c r="C5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-    </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="23" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+    </row>
+    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="101"/>
+      <c r="C6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="108"/>
-    </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1">
-      <c r="B7" s="108"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="108"/>
-    </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="101"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="101"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
-      <c r="B11" s="24" t="s">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="108"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="108" t="s">
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="101"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="101" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="108" t="s">
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="101"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="101" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="18" customHeight="1">
-      <c r="D28" s="110" t="s">
+    <row r="28" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="103" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4966,12 +5208,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="101" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:19" ht="21.75" customHeight="1">
+    <row r="1" spans="7:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="14" t="s">
         <v>79</v>
       </c>
@@ -4988,463 +5230,463 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="7:19" ht="15">
+    <row r="2" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-    </row>
-    <row r="3" spans="7:19" ht="15">
-      <c r="G3" s="30" t="s">
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+    </row>
+    <row r="3" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-    </row>
-    <row r="4" spans="7:19" ht="15">
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-    </row>
-    <row r="5" spans="7:19" ht="15">
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-    </row>
-    <row r="6" spans="7:19" ht="15">
-      <c r="G6" s="110" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+    </row>
+    <row r="4" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+    </row>
+    <row r="5" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+    </row>
+    <row r="6" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G6" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-    </row>
-    <row r="7" spans="7:19" ht="15">
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-    </row>
-    <row r="8" spans="7:19" ht="15">
-      <c r="G8" s="110" t="s">
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+    </row>
+    <row r="7" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+    </row>
+    <row r="8" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G8" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-    </row>
-    <row r="9" spans="7:19" ht="15">
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-    </row>
-    <row r="10" spans="7:19">
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+    </row>
+    <row r="9" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+    </row>
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="34"/>
-    </row>
-    <row r="11" spans="7:19" ht="15">
-      <c r="G11" s="35"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="138"/>
-    </row>
-    <row r="12" spans="7:19" ht="15">
-      <c r="G12" s="35"/>
-      <c r="H12" s="110" t="s">
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G11" s="28"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="133"/>
+    </row>
+    <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G12" s="28"/>
+      <c r="H12" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="39" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="7:19" ht="15">
-      <c r="G13" s="35"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-    </row>
-    <row r="14" spans="7:19" ht="15">
-      <c r="G14" s="35"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="38"/>
-    </row>
-    <row r="15" spans="7:19" ht="15">
-      <c r="G15" s="35"/>
-      <c r="H15" s="110" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G13" s="28"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G14" s="28"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G15" s="28"/>
+      <c r="H15" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="39" t="s">
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="7:19" ht="15">
-      <c r="G16" s="35"/>
-      <c r="H16" s="110" t="s">
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="G16" s="28"/>
+      <c r="H16" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
-    </row>
-    <row r="18" spans="7:23" ht="15">
-      <c r="G18" s="35"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="40" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+    </row>
+    <row r="18" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G18" s="28"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="40" t="s">
+      <c r="K18" s="39"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-    </row>
-    <row r="19" spans="7:23" ht="15">
-      <c r="G19" s="35"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-    </row>
-    <row r="20" spans="7:23" ht="15">
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-    </row>
-    <row r="21" spans="7:23" ht="15">
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-    </row>
-    <row r="22" spans="7:23" ht="15">
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-    </row>
-    <row r="23" spans="7:23" ht="15">
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-    </row>
-    <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="136"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-    </row>
-    <row r="25" spans="7:23" ht="15">
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-    </row>
-    <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="136"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-    </row>
-    <row r="27" spans="7:23" ht="15">
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-    </row>
-    <row r="28" spans="7:23" ht="15">
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+    </row>
+    <row r="19" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G19" s="28"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+    </row>
+    <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+    </row>
+    <row r="21" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+    </row>
+    <row r="22" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+    </row>
+    <row r="23" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+    </row>
+    <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G24" s="131"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+    </row>
+    <row r="25" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+    </row>
+    <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G26" s="131"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+    </row>
+    <row r="27" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+    </row>
+    <row r="28" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5468,7 +5710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5484,111 +5726,111 @@
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="87" customHeight="1">
-      <c r="B1" s="108"/>
-      <c r="C1" s="134" t="s">
+    <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="101"/>
+      <c r="C1" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-    </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+    </row>
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="44" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="103"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="103"/>
+      <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="110"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="108"/>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="45" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="103"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="101"/>
+    </row>
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="108"/>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="48" t="s">
+      <c r="H7" s="101"/>
+    </row>
+    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="108"/>
-    </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="108"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="52" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="101"/>
+    </row>
+    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="108"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5607,7 +5849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
@@ -5615,114 +5857,114 @@
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="139" t="s">
+    <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-    </row>
-    <row r="2" spans="2:11" ht="12.75"/>
-    <row r="3" spans="2:11" ht="12.75">
-      <c r="B3" s="54" t="s">
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="12.75">
-      <c r="B4" s="55"/>
-    </row>
-    <row r="5" spans="2:11" ht="12.75">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-    </row>
-    <row r="6" spans="2:11" ht="12.75">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-    </row>
-    <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="140" t="s">
+    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+    </row>
+    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="G7" s="111" t="s">
+      <c r="C7" s="128"/>
+      <c r="G7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-    </row>
-    <row r="8" spans="2:11" ht="12.75">
-      <c r="B8" s="111"/>
-      <c r="G8" s="111" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="104"/>
+      <c r="G8" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-    </row>
-    <row r="9" spans="2:11" ht="12.75">
-      <c r="B9" s="56" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+    </row>
+    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="12.75">
-      <c r="B10" s="106"/>
-      <c r="D10" s="65"/>
-      <c r="G10" s="66" t="s">
+    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="99"/>
+      <c r="D10" s="58"/>
+      <c r="G10" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="109"/>
-    </row>
-    <row r="11" spans="2:11" ht="25.5">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="111" t="s">
+      <c r="J10" s="104"/>
+      <c r="K10" s="102"/>
+    </row>
+    <row r="11" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="109"/>
-    </row>
-    <row r="12" spans="2:11" ht="12.75">
-      <c r="B12" s="106"/>
-      <c r="D12" s="65"/>
-      <c r="G12" s="66" t="s">
+      <c r="K11" s="102"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="99"/>
+      <c r="D12" s="58"/>
+      <c r="G12" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="109"/>
-    </row>
-    <row r="13" spans="2:11" ht="12.75">
-      <c r="B13" s="106"/>
-      <c r="D13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="K12" s="102"/>
+    </row>
+    <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="99"/>
+      <c r="D13" s="58"/>
+      <c r="G13" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="109"/>
+      <c r="K13" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5742,7 +5984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -5753,123 +5995,123 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" customHeight="1">
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="139" t="s">
+    <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="H2" s="113"/>
-    </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="H3" s="113"/>
-    </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="H2" s="106"/>
+    </row>
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="H3" s="106"/>
+    </row>
+    <row r="4" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="H4" s="113"/>
-    </row>
-    <row r="5" spans="2:8" ht="12.75">
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="H6" s="113"/>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="111" t="s">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="H4" s="106"/>
+    </row>
+    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="H6" s="106"/>
+    </row>
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="116" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="111" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C8" s="114"/>
-      <c r="D8" s="119" t="s">
+    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="107"/>
+      <c r="D8" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="111" t="s">
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="106"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+    </row>
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B11" s="54" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+    </row>
+    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5886,11 +6128,9 @@
   </sheetPr>
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -5906,291 +6146,291 @@
     <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B2" s="68"/>
-      <c r="C2" s="69" t="s">
+    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-    </row>
-    <row r="3" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-    </row>
-    <row r="5" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B5" s="70" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+    </row>
+    <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="70" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
-    </row>
-    <row r="6" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+    </row>
+    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="74"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-    </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="75" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="67"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+    </row>
+    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-    </row>
-    <row r="9" spans="2:13" ht="9.75" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+    </row>
+    <row r="9" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="82" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="90" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="91" t="s">
+      <c r="J11" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="90" t="s">
+      <c r="L11" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="84" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="97"/>
-    </row>
-    <row r="13" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B13" s="103" t="s">
+    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="97"/>
-    </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B14" s="99" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="101">
+      <c r="D14" s="97"/>
+      <c r="E14" s="94">
         <v>44090</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="95">
         <v>44177</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="97"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="100" t="s">
+      <c r="G14" s="90"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="96"/>
+      <c r="C15" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="101">
+      <c r="D15" s="97"/>
+      <c r="E15" s="94">
         <v>44091</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="97" t="s">
+      <c r="F15" s="93"/>
+      <c r="G15" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B16" s="103"/>
-      <c r="C16" s="100" t="s">
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="96"/>
+      <c r="C16" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="101">
+      <c r="D16" s="97"/>
+      <c r="E16" s="94">
         <v>44092</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="20" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C20" s="105" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="20" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C21" s="105" t="s">
+    <row r="21" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C22" s="105" t="s">
+    <row r="22" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="98" t="s">
         <v>150</v>
       </c>
     </row>

--- a/document/projet_td.xlsx
+++ b/document/projet_td.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1963411\Documents\Tower-Defense-2.0\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\Techniques de l'informatique\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F6FFB-D1B2-4E72-AFE7-B10DCC618CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D63660-0D13-4FA7-920C-98DBF2DF42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
     <sheet name="Analyse textuelle" sheetId="2" r:id="rId2"/>
-    <sheet name="Cas d'usageScénarii d'utilisati" sheetId="3" r:id="rId3"/>
+    <sheet name="Cas d'usageScénario d'utilisati" sheetId="3" r:id="rId3"/>
     <sheet name="Maquettes" sheetId="4" r:id="rId4"/>
     <sheet name="CRC" sheetId="5" r:id="rId5"/>
     <sheet name="Modele de donnees" sheetId="6" r:id="rId6"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="457">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -954,9 +954,6 @@
     <t>objet</t>
   </si>
   <si>
-    <t>Pas être vendu</t>
-  </si>
-  <si>
     <t>Dynamique</t>
   </si>
   <si>
@@ -1510,6 +1507,81 @@
   </si>
   <si>
     <t>Éloigné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Démarrer le logiciel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrer son nom d'utilisateur </t>
+  </si>
+  <si>
+    <t>Quitter le programme</t>
+  </si>
+  <si>
+    <t>Démarrer le jeu</t>
+  </si>
+  <si>
+    <t>Sélectionner un tableau</t>
+  </si>
+  <si>
+    <t>Sélectionner une difficulté</t>
+  </si>
+  <si>
+    <t>Cliquer sur défi/bonus</t>
+  </si>
+  <si>
+    <t>Cliquer sur amélioration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancer une partie </t>
+  </si>
+  <si>
+    <t>Sous Cas d'usage</t>
+  </si>
+  <si>
+    <t>Retour au lobby</t>
+  </si>
+  <si>
+    <t>Cliquer sur une  amélioration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur vider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur acheter  </t>
+  </si>
+  <si>
+    <t>Cliquer sur accueil</t>
+  </si>
+  <si>
+    <t>Placer une tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Améliorer une tour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la priorisation d'une tour </t>
+  </si>
+  <si>
+    <t>Vendre une tour</t>
+  </si>
+  <si>
+    <t>Terminer une vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandonner </t>
+  </si>
+  <si>
+    <t>acceuile</t>
+  </si>
+  <si>
+    <t>lacner partie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lancer partie </t>
+  </si>
+  <si>
+    <t>mettre sur pause</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1692,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1633,14 +1705,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1861,21 +1927,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -2281,12 +2332,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2340,10 +2417,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2364,7 +2438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2374,14 +2448,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2389,7 +2463,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,10 +2472,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2426,9 +2500,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2444,10 +2518,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2458,24 +2532,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2513,24 +2587,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2543,11 +2617,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2572,53 +2696,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2989,36 +3077,36 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="103"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3026,18 +3114,18 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="101"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="101"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3140,7 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3150,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="101"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
@@ -3074,7 +3162,7 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -3087,7 +3175,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="101"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5" t="s">
@@ -3102,7 +3190,7 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>15</v>
@@ -3112,7 +3200,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="101"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>16</v>
@@ -3126,34 +3214,34 @@
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
-      <c r="C16" s="103"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="27"/>
       <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
-      <c r="C18" s="103" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="102" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
@@ -3162,95 +3250,95 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="28"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="28"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="28"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="27"/>
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="27"/>
       <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="28"/>
-      <c r="C23" s="103"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="28"/>
-      <c r="C24" s="103" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="102" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="27"/>
       <c r="H24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="27"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="28"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
@@ -3259,24 +3347,24 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="28"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="27"/>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="103"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="9"/>
       <c r="H28" s="8" t="s">
         <v>44</v>
@@ -3290,19 +3378,19 @@
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="102"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="28"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
@@ -3311,88 +3399,88 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="127"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
     </row>
     <row r="44" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="127"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3411,8 +3499,8 @@
   </sheetPr>
   <dimension ref="B2:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3424,90 +3512,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="103"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
     </row>
     <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103"/>
-      <c r="C5" s="103" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="103" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="158" t="s">
+      <c r="E12" s="143" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3515,1525 +3603,1523 @@
       <c r="B13" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="143" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="152" t="s">
+      <c r="C13" s="133" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="137">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="147"/>
+      <c r="C14" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="125" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="147"/>
+      <c r="C15" s="129" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="125" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="147"/>
+      <c r="C16" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="147"/>
+      <c r="C17" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="147"/>
+      <c r="C18" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="147"/>
+      <c r="C19" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="130" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="147"/>
+      <c r="C20" s="129" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="147"/>
+      <c r="C21" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="130" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="147"/>
+      <c r="C22" s="129" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="131" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="147"/>
+      <c r="C23" s="129" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="125" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="147"/>
+      <c r="C24" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="131" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="147"/>
+      <c r="C25" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="147"/>
+      <c r="C26" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="151">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="147"/>
-      <c r="C14" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="126" t="s">
+      <c r="E26" s="131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="147"/>
+      <c r="C27" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="147"/>
+      <c r="C28" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="125" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="147"/>
+      <c r="C29" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="147"/>
+      <c r="C30" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="131" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="147"/>
+      <c r="C31" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="125" t="s">
+        <v>413</v>
+      </c>
+      <c r="E31" s="130" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="147"/>
+      <c r="C32" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="147"/>
+      <c r="C33" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="E33" s="131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="147"/>
+      <c r="C34" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="131" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="147"/>
+      <c r="C35" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="147"/>
+      <c r="C36" s="127" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" s="130" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="147"/>
+      <c r="C37" s="129" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="125" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="131" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="147"/>
+      <c r="C38" s="129" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="125" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="147"/>
+      <c r="C39" s="129" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="131" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="147"/>
+      <c r="C40" s="129" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="125" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="147"/>
+      <c r="C41" s="129" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="130" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="147"/>
+      <c r="C42" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="147"/>
+      <c r="C43" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" s="131" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="147"/>
+      <c r="C44" s="127" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="125" t="s">
+        <v>407</v>
+      </c>
+      <c r="E44" s="131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="147"/>
+      <c r="C45" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="147"/>
+      <c r="C46" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="147"/>
+      <c r="C47" s="129" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="125" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" s="131" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="147"/>
+      <c r="C48" s="129" t="s">
+        <v>429</v>
+      </c>
+      <c r="D48" s="125" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" s="130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="147"/>
+      <c r="C49" s="129" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="130" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="147"/>
+      <c r="C50" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="147"/>
+      <c r="C51" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="125" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="147"/>
+      <c r="C52" s="129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="125" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="147"/>
+      <c r="C53" s="127" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="125" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" s="131" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="147"/>
+      <c r="C54" s="129" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="147"/>
+      <c r="C55" s="129" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" s="125" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="131" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="147"/>
+      <c r="C56" s="129" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="125" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" s="131" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="147"/>
+      <c r="C57" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="D57" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="130" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="147"/>
+      <c r="C58" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" s="128" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="131" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="147"/>
+      <c r="C59" s="129" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="130" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="147"/>
+      <c r="C60" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="125" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="131" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="147"/>
+      <c r="C61" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="147"/>
+      <c r="C62" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="147"/>
+      <c r="C63" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="125" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="147"/>
+      <c r="C64" s="129" t="s">
+        <v>353</v>
+      </c>
+      <c r="D64" s="125" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="130" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="147"/>
+      <c r="C65" s="129" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" s="131" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="147"/>
+      <c r="C66" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="147"/>
+      <c r="C67" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="147"/>
+      <c r="C68" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="125" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="147"/>
+      <c r="C69" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="D69" s="128" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="131" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="147"/>
+      <c r="C70" s="127" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="131" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="147"/>
+      <c r="C71" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="131" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="147"/>
+      <c r="C72" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="147"/>
+      <c r="C73" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="130" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="147"/>
+      <c r="C74" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="128" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="131" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="147"/>
+      <c r="C75" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="131" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="147"/>
+      <c r="C76" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" s="130" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="147"/>
+      <c r="C77" s="129" t="s">
+        <v>347</v>
+      </c>
+      <c r="D77" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" s="131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="147"/>
+      <c r="C78" s="127" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="E78" s="130" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="147"/>
+      <c r="C79" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="131" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="147"/>
+      <c r="C80" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="130" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="141" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="147"/>
-      <c r="C15" s="139" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" s="126" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="147"/>
-      <c r="C16" s="137" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="126" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="147"/>
-      <c r="C17" s="139" t="s">
-        <v>391</v>
-      </c>
-      <c r="D17" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="141" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="147"/>
-      <c r="C18" s="137" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="126" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="147"/>
-      <c r="C19" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="126" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="140" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="147"/>
-      <c r="C20" s="139" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="147"/>
-      <c r="C21" s="139" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="140" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="147"/>
-      <c r="C22" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="126" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="147"/>
-      <c r="C23" s="139" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="141" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="147"/>
-      <c r="C24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="141" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="147"/>
-      <c r="C25" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="138" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="141" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
-      <c r="C26" s="139" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="141" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
-      <c r="C27" s="139" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" s="126" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="140" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
-      <c r="C28" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="141" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="147"/>
-      <c r="C29" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="141" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="147"/>
-      <c r="C30" s="137" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="126" t="s">
-        <v>429</v>
-      </c>
-      <c r="E30" s="141" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="147"/>
-      <c r="C31" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="126" t="s">
-        <v>414</v>
-      </c>
-      <c r="E31" s="140" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="147"/>
-      <c r="C32" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="141" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="147"/>
-      <c r="C33" s="139" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="126" t="s">
-        <v>332</v>
-      </c>
-      <c r="E33" s="141" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="147"/>
-      <c r="C34" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="126" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="141" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="147"/>
-      <c r="C35" s="139" t="s">
-        <v>385</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="147"/>
-      <c r="C36" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="138" t="s">
-        <v>327</v>
-      </c>
-      <c r="E36" s="140" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="147"/>
-      <c r="C37" s="139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D37" s="126" t="s">
-        <v>366</v>
-      </c>
-      <c r="E37" s="141" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="147"/>
-      <c r="C38" s="139" t="s">
-        <v>415</v>
-      </c>
-      <c r="D38" s="126" t="s">
-        <v>362</v>
-      </c>
-      <c r="E38" s="141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="147"/>
-      <c r="C39" s="139" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="126" t="s">
-        <v>330</v>
-      </c>
-      <c r="E39" s="141" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="147"/>
-      <c r="C40" s="139" t="s">
-        <v>377</v>
-      </c>
-      <c r="D40" s="126" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="141" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="147"/>
-      <c r="C41" s="139" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="126" t="s">
-        <v>369</v>
-      </c>
-      <c r="E41" s="140" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="147"/>
-      <c r="C42" s="139" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" s="126" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="147"/>
-      <c r="C43" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="126" t="s">
-        <v>361</v>
-      </c>
-      <c r="E43" s="141" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="147"/>
-      <c r="C44" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="126" t="s">
-        <v>408</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="147"/>
-      <c r="C45" s="139" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="140" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="147"/>
-      <c r="C46" s="137" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="147"/>
-      <c r="C47" s="139" t="s">
-        <v>312</v>
-      </c>
-      <c r="D47" s="126" t="s">
-        <v>403</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="147"/>
-      <c r="C48" s="139" t="s">
-        <v>430</v>
-      </c>
-      <c r="D48" s="126" t="s">
-        <v>380</v>
-      </c>
-      <c r="E48" s="140" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="147"/>
-      <c r="C49" s="139" t="s">
-        <v>351</v>
-      </c>
-      <c r="D49" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="E49" s="140" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="147"/>
-      <c r="C50" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" s="141" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="147"/>
-      <c r="C51" s="139" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>409</v>
-      </c>
-      <c r="E51" s="141" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="147"/>
-      <c r="C52" s="139" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>407</v>
-      </c>
-      <c r="E52" s="141" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="147"/>
-      <c r="C53" s="137" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="126" t="s">
-        <v>387</v>
-      </c>
-      <c r="E53" s="141" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="147"/>
-      <c r="C54" s="139" t="s">
-        <v>294</v>
-      </c>
-      <c r="D54" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="147"/>
-      <c r="C55" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="D55" s="126" t="s">
-        <v>410</v>
-      </c>
-      <c r="E55" s="141" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="147"/>
-      <c r="C56" s="139" t="s">
-        <v>378</v>
-      </c>
-      <c r="D56" s="126" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" s="141" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="147"/>
-      <c r="C57" s="139" t="s">
-        <v>401</v>
-      </c>
-      <c r="D57" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" s="140" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="147"/>
-      <c r="C58" s="139" t="s">
-        <v>293</v>
-      </c>
-      <c r="D58" s="138" t="s">
-        <v>400</v>
-      </c>
-      <c r="E58" s="141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="147"/>
-      <c r="C59" s="139" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="126" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="140" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="147"/>
-      <c r="C60" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="153" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="141" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="147"/>
-      <c r="C61" s="137" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="126" t="s">
-        <v>364</v>
-      </c>
-      <c r="E61" s="140" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="147"/>
-      <c r="C62" s="139" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="126" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" s="141" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="147"/>
-      <c r="C63" s="139" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="126" t="s">
-        <v>288</v>
-      </c>
-      <c r="E63" s="141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="147"/>
-      <c r="C64" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="D64" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="E64" s="140" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="147"/>
-      <c r="C65" s="139" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="126" t="s">
-        <v>397</v>
-      </c>
-      <c r="E65" s="141" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="147"/>
-      <c r="C66" s="139" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="E66" s="141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="147"/>
-      <c r="C67" s="139" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" s="126" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="147"/>
-      <c r="C68" s="137" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" s="126" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" s="141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="147"/>
-      <c r="C69" s="139" t="s">
-        <v>427</v>
-      </c>
-      <c r="D69" s="126" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="141" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="147"/>
-      <c r="C70" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="138" t="s">
-        <v>311</v>
-      </c>
-      <c r="E70" s="141" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="147"/>
-      <c r="C71" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="141" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="147"/>
-      <c r="C72" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="126" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="147"/>
-      <c r="C73" s="139" t="s">
-        <v>316</v>
-      </c>
-      <c r="D73" s="126" t="s">
-        <v>336</v>
-      </c>
-      <c r="E73" s="140" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="147"/>
-      <c r="C74" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="D74" s="126" t="s">
-        <v>331</v>
-      </c>
-      <c r="E74" s="141" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="147"/>
-      <c r="C75" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="138" t="s">
-        <v>396</v>
-      </c>
-      <c r="E75" s="141" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="147"/>
-      <c r="C76" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="126" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="140" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="147"/>
-      <c r="C77" s="139" t="s">
-        <v>348</v>
-      </c>
-      <c r="D77" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="147"/>
-      <c r="C78" s="137" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="126" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="140" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="147"/>
-      <c r="C79" s="139" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="138" t="s">
-        <v>347</v>
-      </c>
-      <c r="E79" s="141" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="147"/>
-      <c r="C80" s="139" t="s">
-        <v>297</v>
-      </c>
-      <c r="D80" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="140" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="147"/>
-      <c r="C81" s="139" t="s">
+      <c r="C81" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="E81" s="141" t="s">
-        <v>320</v>
+      <c r="D81" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="131" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
-      <c r="C82" s="137" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82" s="141" t="s">
-        <v>342</v>
+      <c r="C82" s="127" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="131" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
-      <c r="C83" s="139" t="s">
-        <v>395</v>
-      </c>
-      <c r="D83" s="126" t="s">
-        <v>189</v>
-      </c>
-      <c r="E83" s="140" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="129" t="s">
+        <v>394</v>
+      </c>
+      <c r="D83" s="125" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="130" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="148"/>
-      <c r="C84" s="139" t="s">
-        <v>381</v>
-      </c>
-      <c r="D84" s="126" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="141" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="129" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
-      <c r="C85" s="137" t="s">
+      <c r="C85" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="D85" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" s="141" t="s">
+      <c r="D85" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="131" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
-      <c r="C86" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="D86" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="E86" s="141" t="s">
+      <c r="C86" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="125" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" s="131" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="148"/>
-      <c r="C87" s="137" t="s">
+      <c r="C87" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="126" t="s">
-        <v>425</v>
-      </c>
-      <c r="E87" s="141" t="s">
+      <c r="D87" s="125" t="s">
+        <v>422</v>
+      </c>
+      <c r="E87" s="131" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="148"/>
-      <c r="C88" s="137" t="s">
-        <v>249</v>
-      </c>
-      <c r="D88" s="126" t="s">
-        <v>423</v>
-      </c>
-      <c r="E88" s="141" t="s">
+      <c r="C88" s="127" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="131" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="148"/>
-      <c r="C89" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="D89" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" s="141" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="125" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
-      <c r="C90" s="137" t="s">
+      <c r="C90" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="D90" s="126" t="s">
-        <v>280</v>
-      </c>
-      <c r="E90" s="141"/>
-    </row>
-    <row r="91" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="131"/>
+    </row>
+    <row r="91" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
-      <c r="C91" s="139" t="s">
+      <c r="C91" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="E91" s="141"/>
-    </row>
-    <row r="92" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="131"/>
+    </row>
+    <row r="92" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="148"/>
-      <c r="C92" s="137" t="s">
+      <c r="C92" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="141"/>
-    </row>
-    <row r="93" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="131"/>
+    </row>
+    <row r="93" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
-      <c r="C93" s="139" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="126" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="141"/>
-    </row>
-    <row r="94" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="129" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="125" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" s="131"/>
+    </row>
+    <row r="94" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
-      <c r="C94" s="137" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E94" s="141"/>
-    </row>
-    <row r="95" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="125" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" s="131"/>
+    </row>
+    <row r="95" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="148"/>
-      <c r="C95" s="139" t="s">
-        <v>413</v>
-      </c>
-      <c r="D95" s="126" t="s">
+      <c r="C95" s="128" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" s="158"/>
+      <c r="E95" s="125"/>
+    </row>
+    <row r="96" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="148"/>
+      <c r="C96" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" s="125"/>
+      <c r="E96" s="131"/>
+    </row>
+    <row r="97" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="148"/>
+      <c r="C97" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="125"/>
+      <c r="E97" s="131"/>
+    </row>
+    <row r="98" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="148"/>
+      <c r="C98" s="129" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" s="125"/>
+      <c r="E98" s="131"/>
+    </row>
+    <row r="99" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="148"/>
+      <c r="C99" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" s="125"/>
+      <c r="E99" s="131"/>
+    </row>
+    <row r="100" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="148"/>
+      <c r="C100" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="E95" s="141"/>
-    </row>
-    <row r="96" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="148"/>
-      <c r="C96" s="139" t="s">
-        <v>283</v>
-      </c>
-      <c r="D96" s="126"/>
-      <c r="E96" s="141"/>
-    </row>
-    <row r="97" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="148"/>
-      <c r="C97" s="139" t="s">
-        <v>335</v>
-      </c>
-      <c r="D97" s="126"/>
-      <c r="E97" s="141"/>
-    </row>
-    <row r="98" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="148"/>
-      <c r="C98" s="139" t="s">
-        <v>341</v>
-      </c>
-      <c r="D98" s="126"/>
-      <c r="E98" s="141"/>
-    </row>
-    <row r="99" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="148"/>
-      <c r="C99" s="139" t="s">
-        <v>360</v>
-      </c>
-      <c r="D99" s="126"/>
-      <c r="E99" s="141"/>
-    </row>
-    <row r="100" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="148"/>
-      <c r="C100" s="139" t="s">
-        <v>368</v>
-      </c>
-      <c r="D100" s="126"/>
-      <c r="E100" s="141"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="131"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="148"/>
-      <c r="C101" s="139" t="s">
-        <v>319</v>
-      </c>
-      <c r="D101" s="126"/>
-      <c r="E101" s="141"/>
-    </row>
-    <row r="102" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="125"/>
+      <c r="E101" s="131"/>
+    </row>
+    <row r="102" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
-      <c r="C102" s="137" t="s">
+      <c r="C102" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="D102" s="126"/>
-      <c r="E102" s="141"/>
-    </row>
-    <row r="103" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="125"/>
+      <c r="E102" s="131"/>
+    </row>
+    <row r="103" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
-      <c r="C103" s="139" t="s">
-        <v>355</v>
-      </c>
-      <c r="D103" s="126"/>
-      <c r="E103" s="141"/>
-    </row>
-    <row r="104" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="D103" s="125"/>
+      <c r="E103" s="131"/>
+    </row>
+    <row r="104" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="148"/>
-      <c r="C104" s="137" t="s">
+      <c r="C104" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="D104" s="126"/>
-      <c r="E104" s="141"/>
-    </row>
-    <row r="105" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="125"/>
+      <c r="E104" s="131"/>
+    </row>
+    <row r="105" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="148"/>
-      <c r="C105" s="137" t="s">
+      <c r="C105" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="126"/>
-      <c r="E105" s="141"/>
-    </row>
-    <row r="106" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="125"/>
+      <c r="E105" s="131"/>
+    </row>
+    <row r="106" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="148"/>
-      <c r="C106" s="139" t="s">
-        <v>388</v>
-      </c>
-      <c r="D106" s="154"/>
-      <c r="E106" s="141"/>
-    </row>
-    <row r="107" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="129" t="s">
+        <v>387</v>
+      </c>
+      <c r="D106" s="139"/>
+      <c r="E106" s="131"/>
+    </row>
+    <row r="107" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="148"/>
-      <c r="C107" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="D107" s="126"/>
-      <c r="E107" s="141"/>
-    </row>
-    <row r="108" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" s="125"/>
+      <c r="E107" s="131"/>
+    </row>
+    <row r="108" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="148"/>
-      <c r="C108" s="137" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="126"/>
-      <c r="E108" s="141"/>
-    </row>
-    <row r="109" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" s="125"/>
+      <c r="E108" s="131"/>
+    </row>
+    <row r="109" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
-      <c r="C109" s="137" t="s">
+      <c r="C109" s="127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="125"/>
+      <c r="E109" s="131"/>
+    </row>
+    <row r="110" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="148"/>
+      <c r="C110" s="129" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" s="125"/>
+      <c r="E110" s="131"/>
+    </row>
+    <row r="111" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="148"/>
+      <c r="C111" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="125"/>
+      <c r="E111" s="131"/>
+    </row>
+    <row r="112" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="148"/>
+      <c r="C112" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="126"/>
-      <c r="E109" s="141"/>
-    </row>
-    <row r="110" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="148"/>
-      <c r="C110" s="139" t="s">
-        <v>346</v>
-      </c>
-      <c r="D110" s="126"/>
-      <c r="E110" s="141"/>
-    </row>
-    <row r="111" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="148"/>
-      <c r="C111" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="126"/>
-      <c r="E111" s="141"/>
-    </row>
-    <row r="112" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="148"/>
-      <c r="C112" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="D112" s="126"/>
-      <c r="E112" s="141"/>
-    </row>
-    <row r="113" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="125"/>
+      <c r="E112" s="131"/>
+    </row>
+    <row r="113" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
-      <c r="C113" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="D113" s="126"/>
-      <c r="E113" s="141"/>
-    </row>
-    <row r="114" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="129" t="s">
+        <v>357</v>
+      </c>
+      <c r="D113" s="125"/>
+      <c r="E113" s="131"/>
+    </row>
+    <row r="114" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="148"/>
-      <c r="C114" s="139" t="s">
-        <v>340</v>
-      </c>
-      <c r="D114" s="126"/>
-      <c r="E114" s="141"/>
-    </row>
-    <row r="115" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="129" t="s">
+        <v>339</v>
+      </c>
+      <c r="D114" s="125"/>
+      <c r="E114" s="131"/>
+    </row>
+    <row r="115" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
-      <c r="C115" s="137" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="126"/>
-      <c r="E115" s="141"/>
-    </row>
-    <row r="116" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="125"/>
+      <c r="E115" s="131"/>
+    </row>
+    <row r="116" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
-      <c r="C116" s="137" t="s">
+      <c r="C116" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="126"/>
-      <c r="E116" s="141"/>
-    </row>
-    <row r="117" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="125"/>
+      <c r="E116" s="131"/>
+    </row>
+    <row r="117" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="148"/>
-      <c r="C117" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D117" s="126"/>
-      <c r="E117" s="141"/>
-    </row>
-    <row r="118" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="129" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="125"/>
+      <c r="E117" s="131"/>
+    </row>
+    <row r="118" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
-      <c r="C118" s="139" t="s">
-        <v>325</v>
-      </c>
-      <c r="D118" s="126"/>
-      <c r="E118" s="141"/>
-    </row>
-    <row r="119" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="D118" s="125"/>
+      <c r="E118" s="131"/>
+    </row>
+    <row r="119" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
-      <c r="C119" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="D119" s="126"/>
-      <c r="E119" s="141"/>
-    </row>
-    <row r="120" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="125"/>
+      <c r="E119" s="131"/>
+    </row>
+    <row r="120" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="148"/>
-      <c r="C120" s="137" t="s">
+      <c r="C120" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="D120" s="126"/>
-      <c r="E120" s="141"/>
-    </row>
-    <row r="121" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="125"/>
+      <c r="E120" s="131"/>
+    </row>
+    <row r="121" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
-      <c r="C121" s="139" t="s">
-        <v>310</v>
-      </c>
-      <c r="D121" s="126"/>
-      <c r="E121" s="141"/>
-    </row>
-    <row r="122" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="129" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="125"/>
+      <c r="E121" s="131"/>
+    </row>
+    <row r="122" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
-      <c r="C122" s="137" t="s">
+      <c r="C122" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="D122" s="126"/>
-      <c r="E122" s="141"/>
-    </row>
-    <row r="123" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D122" s="125"/>
+      <c r="E122" s="131"/>
+    </row>
+    <row r="123" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="148"/>
-      <c r="C123" s="139" t="s">
+      <c r="C123" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="D123" s="126"/>
-      <c r="E123" s="141"/>
-    </row>
-    <row r="124" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="125"/>
+      <c r="E123" s="131"/>
+    </row>
+    <row r="124" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="148"/>
-      <c r="C124" s="139" t="s">
-        <v>295</v>
-      </c>
-      <c r="D124" s="126"/>
-      <c r="E124" s="141"/>
-    </row>
-    <row r="125" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="D124" s="125"/>
+      <c r="E124" s="131"/>
+    </row>
+    <row r="125" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="148"/>
-      <c r="C125" s="137" t="s">
+      <c r="C125" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="D125" s="126"/>
-      <c r="E125" s="141"/>
-    </row>
-    <row r="126" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="125"/>
+      <c r="E125" s="131"/>
+    </row>
+    <row r="126" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
-      <c r="C126" s="137" t="s">
+      <c r="C126" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="D126" s="126"/>
-      <c r="E126" s="141"/>
-    </row>
-    <row r="127" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="125"/>
+      <c r="E126" s="131"/>
+    </row>
+    <row r="127" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
-      <c r="C127" s="137" t="s">
+      <c r="C127" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="126"/>
-      <c r="E127" s="141"/>
-    </row>
-    <row r="128" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="125"/>
+      <c r="E127" s="131"/>
+    </row>
+    <row r="128" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="148"/>
-      <c r="C128" s="137" t="s">
+      <c r="C128" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="D128" s="126"/>
-      <c r="E128" s="141"/>
-    </row>
-    <row r="129" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="125"/>
+      <c r="E128" s="131"/>
+    </row>
+    <row r="129" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
-      <c r="C129" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="D129" s="126"/>
-      <c r="E129" s="141"/>
-    </row>
-    <row r="130" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="127" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="125"/>
+      <c r="E129" s="131"/>
+    </row>
+    <row r="130" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
-      <c r="C130" s="139" t="s">
-        <v>382</v>
-      </c>
-      <c r="D130" s="126"/>
-      <c r="E130" s="141"/>
-    </row>
-    <row r="131" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="129" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" s="125"/>
+      <c r="E130" s="131"/>
+    </row>
+    <row r="131" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="148"/>
-      <c r="C131" s="139" t="s">
-        <v>287</v>
-      </c>
-      <c r="D131" s="126"/>
-      <c r="E131" s="141"/>
-    </row>
-    <row r="132" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="D131" s="125"/>
+      <c r="E131" s="131"/>
+    </row>
+    <row r="132" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
-      <c r="C132" s="139" t="s">
-        <v>393</v>
-      </c>
-      <c r="D132" s="126"/>
-      <c r="E132" s="141"/>
-    </row>
-    <row r="133" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="129" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" s="125"/>
+      <c r="E132" s="131"/>
+    </row>
+    <row r="133" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
-      <c r="C133" s="139" t="s">
-        <v>328</v>
-      </c>
-      <c r="D133" s="126"/>
-      <c r="E133" s="141"/>
-    </row>
-    <row r="134" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="129" t="s">
+        <v>327</v>
+      </c>
+      <c r="D133" s="125"/>
+      <c r="E133" s="131"/>
+    </row>
+    <row r="134" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="148"/>
-      <c r="C134" s="139" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="126"/>
-      <c r="E134" s="141"/>
-    </row>
-    <row r="135" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" s="125"/>
+      <c r="E134" s="131"/>
+    </row>
+    <row r="135" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
-      <c r="C135" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="126"/>
-      <c r="E135" s="141"/>
-    </row>
-    <row r="136" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="D135" s="125"/>
+      <c r="E135" s="131"/>
+    </row>
+    <row r="136" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
-      <c r="C136" s="139" t="s">
+      <c r="C136" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="D136" s="126"/>
-      <c r="E136" s="141"/>
-    </row>
-    <row r="137" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="125"/>
+      <c r="E136" s="131"/>
+    </row>
+    <row r="137" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="148"/>
-      <c r="C137" s="139" t="s">
-        <v>373</v>
-      </c>
-      <c r="D137" s="126"/>
-      <c r="E137" s="141"/>
-    </row>
-    <row r="138" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="129" t="s">
+        <v>372</v>
+      </c>
+      <c r="D137" s="125"/>
+      <c r="E137" s="131"/>
+    </row>
+    <row r="138" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
-      <c r="C138" s="139" t="s">
-        <v>399</v>
-      </c>
-      <c r="D138" s="126"/>
-      <c r="E138" s="141"/>
-    </row>
-    <row r="139" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="125"/>
+      <c r="E138" s="131"/>
+    </row>
+    <row r="139" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
-      <c r="C139" s="139"/>
-      <c r="D139" s="126"/>
-      <c r="E139" s="141"/>
-    </row>
-    <row r="140" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="129"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="131"/>
+    </row>
+    <row r="140" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="148"/>
-      <c r="C140" s="139"/>
-      <c r="D140" s="126"/>
-      <c r="E140" s="141"/>
-    </row>
-    <row r="141" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="129"/>
+      <c r="D140" s="125"/>
+      <c r="E140" s="131"/>
+    </row>
+    <row r="141" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="148"/>
-      <c r="C141" s="139"/>
-      <c r="D141" s="126"/>
-      <c r="E141" s="141"/>
-    </row>
-    <row r="142" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="129"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="131"/>
+    </row>
+    <row r="142" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="148"/>
-      <c r="C142" s="139"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="141"/>
-    </row>
-    <row r="143" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="129"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="131"/>
+    </row>
+    <row r="143" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
-      <c r="C143" s="139"/>
-      <c r="D143" s="126"/>
-      <c r="E143" s="141"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="125"/>
+      <c r="E143" s="131"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
-      <c r="C144" s="139"/>
-      <c r="D144" s="126"/>
-      <c r="E144" s="141"/>
-    </row>
-    <row r="145" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="129"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="131"/>
+    </row>
+    <row r="145" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="148"/>
-      <c r="C145" s="139"/>
-      <c r="D145" s="126"/>
-      <c r="E145" s="141"/>
+      <c r="C145" s="129"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="131"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
-      <c r="C146" s="139"/>
-      <c r="D146" s="126"/>
-      <c r="E146" s="141"/>
-    </row>
-    <row r="147" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="129"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="131"/>
+    </row>
+    <row r="147" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
-      <c r="C147" s="139"/>
-      <c r="D147" s="126"/>
-      <c r="E147" s="141"/>
-    </row>
-    <row r="148" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="129"/>
+      <c r="D147" s="125"/>
+      <c r="E147" s="131"/>
+    </row>
+    <row r="148" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="148"/>
-      <c r="C148" s="139"/>
-      <c r="D148" s="126"/>
-      <c r="E148" s="141"/>
-    </row>
-    <row r="149" spans="2:5" s="125" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="129"/>
+      <c r="D148" s="125"/>
+      <c r="E148" s="131"/>
+    </row>
+    <row r="149" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
-      <c r="C149" s="139"/>
-      <c r="D149" s="126"/>
-      <c r="E149" s="141"/>
+      <c r="C149" s="129"/>
+      <c r="D149" s="125"/>
+      <c r="E149" s="131"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="148"/>
-      <c r="C150" s="139"/>
-      <c r="D150" s="126"/>
-      <c r="E150" s="141"/>
+      <c r="C150" s="129"/>
+      <c r="D150" s="125"/>
+      <c r="E150" s="131"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C151" s="143" t="s">
-        <v>411</v>
-      </c>
-      <c r="D151" s="152"/>
-      <c r="E151" s="144"/>
+      <c r="C151" s="133" t="s">
+        <v>410</v>
+      </c>
+      <c r="D151" s="138"/>
+      <c r="E151" s="134"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
-      <c r="C152" s="139" t="s">
-        <v>402</v>
-      </c>
-      <c r="D152" s="126"/>
-      <c r="E152" s="141"/>
+      <c r="C152" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="D152" s="125"/>
+      <c r="E152" s="131"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
-      <c r="C153" s="139"/>
-      <c r="D153" s="126"/>
-      <c r="E153" s="141"/>
+      <c r="C153" s="129"/>
+      <c r="D153" s="125"/>
+      <c r="E153" s="131"/>
     </row>
     <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="148"/>
-      <c r="C154" s="139"/>
-      <c r="D154" s="126"/>
-      <c r="E154" s="141"/>
+      <c r="C154" s="129"/>
+      <c r="D154" s="125"/>
+      <c r="E154" s="131"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
-      <c r="C155" s="139"/>
-      <c r="D155" s="126"/>
-      <c r="E155" s="141"/>
+      <c r="C155" s="129"/>
+      <c r="D155" s="125"/>
+      <c r="E155" s="131"/>
     </row>
     <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
-      <c r="C156" s="139"/>
-      <c r="D156" s="126"/>
-      <c r="E156" s="141"/>
+      <c r="C156" s="129"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="131"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="148"/>
-      <c r="C157" s="139"/>
-      <c r="D157" s="126"/>
-      <c r="E157" s="141"/>
+      <c r="C157" s="129"/>
+      <c r="D157" s="125"/>
+      <c r="E157" s="131"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="148"/>
-      <c r="C158" s="139"/>
-      <c r="D158" s="126"/>
-      <c r="E158" s="141"/>
+      <c r="C158" s="129"/>
+      <c r="D158" s="125"/>
+      <c r="E158" s="131"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="149"/>
-      <c r="C159" s="145"/>
-      <c r="D159" s="155"/>
-      <c r="E159" s="142"/>
+      <c r="C159" s="135"/>
+      <c r="D159" s="140"/>
+      <c r="E159" s="132"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C160" s="143"/>
-      <c r="D160" s="152"/>
-      <c r="E160" s="144"/>
+      <c r="C160" s="133"/>
+      <c r="D160" s="138"/>
+      <c r="E160" s="134"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="148"/>
-      <c r="C161" s="139"/>
-      <c r="D161" s="126"/>
-      <c r="E161" s="141"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="131"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="148"/>
-      <c r="C162" s="139"/>
-      <c r="D162" s="126"/>
-      <c r="E162" s="141"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="125"/>
+      <c r="E162" s="131"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="148"/>
-      <c r="C163" s="139"/>
-      <c r="D163" s="126"/>
-      <c r="E163" s="141"/>
+      <c r="C163" s="129"/>
+      <c r="D163" s="125"/>
+      <c r="E163" s="131"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="148"/>
-      <c r="C164" s="139"/>
-      <c r="D164" s="126"/>
-      <c r="E164" s="141"/>
+      <c r="C164" s="129"/>
+      <c r="D164" s="125"/>
+      <c r="E164" s="131"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="148"/>
-      <c r="C165" s="139"/>
-      <c r="D165" s="126"/>
-      <c r="E165" s="141"/>
+      <c r="C165" s="129"/>
+      <c r="D165" s="125"/>
+      <c r="E165" s="131"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="148"/>
-      <c r="C166" s="139"/>
-      <c r="D166" s="126"/>
-      <c r="E166" s="141"/>
+      <c r="C166" s="129"/>
+      <c r="D166" s="125"/>
+      <c r="E166" s="131"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="148"/>
-      <c r="C167" s="139"/>
-      <c r="D167" s="126"/>
-      <c r="E167" s="141"/>
+      <c r="C167" s="129"/>
+      <c r="D167" s="125"/>
+      <c r="E167" s="131"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="148"/>
-      <c r="C168" s="137"/>
-      <c r="D168" s="126"/>
-      <c r="E168" s="141"/>
+      <c r="C168" s="127"/>
+      <c r="D168" s="125"/>
+      <c r="E168" s="131"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="149"/>
-      <c r="C169" s="150"/>
-      <c r="D169" s="155"/>
-      <c r="E169" s="142"/>
+      <c r="C169" s="136"/>
+      <c r="D169" s="140"/>
+      <c r="E169" s="132"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E14:E150">
@@ -5054,146 +5140,274 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="126" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="100"/>
+    <row r="2" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="99"/>
       <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-    </row>
-    <row r="3" spans="2:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="100"/>
-      <c r="C3" s="129" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+    </row>
+    <row r="3" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="99"/>
+      <c r="C3" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="100"/>
-    </row>
-    <row r="4" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="101"/>
-      <c r="C4" s="130" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="100"/>
+      <c r="C4" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="101"/>
-    </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="100"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="99"/>
       <c r="C5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-    </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="100"/>
       <c r="C6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="101"/>
-    </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="101"/>
-    </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="16"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="100"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="17"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="161" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="101"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="101" t="s">
+    <row r="12" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="100"/>
+      <c r="C12" s="102" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="162"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="101" t="s">
+    <row r="13" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="100"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="100" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="103" t="s">
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="126" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="126" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" s="126" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D27" s="126" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="126" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" s="126" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D29" s="126" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="126" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="126" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="126" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" s="126" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D34" s="126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="126" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="126" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="102" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -5234,459 +5448,459 @@
       <c r="G2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
     </row>
     <row r="3" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
     </row>
     <row r="4" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
     </row>
     <row r="5" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
     </row>
     <row r="6" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
     </row>
     <row r="7" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
     </row>
     <row r="8" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
     </row>
     <row r="9" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
     </row>
     <row r="10" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="27"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G11" s="28"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="133"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="154"/>
     </row>
     <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G12" s="28"/>
-      <c r="H12" s="103" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="32" t="s">
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G13" s="28"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G14" s="28"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="31"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G15" s="28"/>
-      <c r="H15" s="103" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="32" t="s">
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="31"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="7:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="G16" s="28"/>
-      <c r="H16" s="103" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="18" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G18" s="28"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="33" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="33" t="s">
+      <c r="K18" s="38"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
     </row>
     <row r="19" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G19" s="28"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
     </row>
     <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
     </row>
     <row r="21" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
     </row>
     <row r="22" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
     </row>
     <row r="23" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
     </row>
     <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G24" s="131"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
     </row>
     <row r="25" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
     </row>
     <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G26" s="131"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
     </row>
     <row r="27" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
     </row>
     <row r="28" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5727,110 +5941,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="101"/>
-      <c r="C1" s="129" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="103"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="101"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5858,113 +6072,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="G7" s="104" t="s">
+      <c r="C7" s="145"/>
+      <c r="G7" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="B8" s="103"/>
+      <c r="G8" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="53" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="D10" s="58"/>
-      <c r="G10" s="59" t="s">
+      <c r="B10" s="98"/>
+      <c r="D10" s="57"/>
+      <c r="G10" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="104" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="102"/>
+      <c r="K11" s="101"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
-      <c r="D12" s="58"/>
-      <c r="G12" s="59" t="s">
+      <c r="B12" s="98"/>
+      <c r="D12" s="57"/>
+      <c r="G12" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
-      <c r="D13" s="58"/>
-      <c r="G13" s="59" t="s">
+      <c r="B13" s="98"/>
+      <c r="D13" s="57"/>
+      <c r="G13" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5996,122 +6210,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="106"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="134" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="H6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="110" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="107"/>
-      <c r="D8" s="112" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="106"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6147,290 +6361,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
+      <c r="B3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="B4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
     </row>
     <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="67"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74" t="s">
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="83" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="90"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="89"/>
     </row>
     <row r="13" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="90"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="94">
+      <c r="D14" s="96"/>
+      <c r="E14" s="93">
         <v>44090</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="94">
         <v>44177</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="90"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="96"/>
-      <c r="C15" s="93" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="94">
+      <c r="D15" s="96"/>
+      <c r="E15" s="93">
         <v>44091</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="90" t="s">
+      <c r="F15" s="92"/>
+      <c r="G15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="90"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="96"/>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="94">
+      <c r="D16" s="96"/>
+      <c r="E16" s="93">
         <v>44092</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="90"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="20" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="97" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="97" t="s">
         <v>150</v>
       </c>
     </row>

--- a/document/projet_td.xlsx
+++ b/document/projet_td.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\Techniques de l'informatique\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D63660-0D13-4FA7-920C-98DBF2DF42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7179B295-4FC9-4B37-A0FA-D006B93BB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="452">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1512,48 +1512,9 @@
     <t xml:space="preserve">Démarrer le logiciel </t>
   </si>
   <si>
-    <t xml:space="preserve">entrer son nom d'utilisateur </t>
-  </si>
-  <si>
-    <t>Quitter le programme</t>
-  </si>
-  <si>
-    <t>Démarrer le jeu</t>
-  </si>
-  <si>
-    <t>Sélectionner un tableau</t>
-  </si>
-  <si>
-    <t>Sélectionner une difficulté</t>
-  </si>
-  <si>
-    <t>Cliquer sur défi/bonus</t>
-  </si>
-  <si>
-    <t>Cliquer sur amélioration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lancer une partie </t>
-  </si>
-  <si>
     <t>Sous Cas d'usage</t>
   </si>
   <si>
-    <t>Retour au lobby</t>
-  </si>
-  <si>
-    <t>Cliquer sur une  amélioration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliquer sur vider </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliquer sur acheter  </t>
-  </si>
-  <si>
-    <t>Cliquer sur accueil</t>
-  </si>
-  <si>
     <t>Placer une tour</t>
   </si>
   <si>
@@ -1572,16 +1533,40 @@
     <t xml:space="preserve">Abandonner </t>
   </si>
   <si>
-    <t>acceuile</t>
-  </si>
-  <si>
-    <t>lacner partie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lancer partie </t>
-  </si>
-  <si>
-    <t>mettre sur pause</t>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>Quitter le logiciel</t>
+  </si>
+  <si>
+    <t>Lancer une partie</t>
+  </si>
+  <si>
+    <t>Accéder aux améliorations</t>
+  </si>
+  <si>
+    <t>Jouer une partie</t>
+  </si>
+  <si>
+    <t>Mettre sur pause</t>
+  </si>
+  <si>
+    <t>Visionner les défis/bonus</t>
+  </si>
+  <si>
+    <t>Sélectionner une amélioration</t>
+  </si>
+  <si>
+    <t>Vider les achats potentiels</t>
+  </si>
+  <si>
+    <t>Acheter les améliorations</t>
+  </si>
+  <si>
+    <t>Retour à l'accueil</t>
+  </si>
+  <si>
+    <t>Cliquer sur l'exécutable du logiciel</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2358,12 +2343,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2656,6 +2696,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2696,18 +2750,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3399,22 +3468,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="102"/>
@@ -3423,22 +3492,22 @@
       <c r="I39" s="102"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="144"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="102"/>
@@ -3453,34 +3522,34 @@
       <c r="I44" s="102"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3600,7 +3669,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="152" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="133" t="s">
@@ -3614,7 +3683,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="147"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="127" t="s">
         <v>240</v>
       </c>
@@ -3626,7 +3695,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="147"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="129" t="s">
         <v>388</v>
       </c>
@@ -3638,7 +3707,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="147"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="127" t="s">
         <v>152</v>
       </c>
@@ -3650,7 +3719,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="147"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="129" t="s">
         <v>390</v>
       </c>
@@ -3662,7 +3731,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="147"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="127" t="s">
         <v>182</v>
       </c>
@@ -3674,7 +3743,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="147"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="127" t="s">
         <v>205</v>
       </c>
@@ -3686,7 +3755,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="147"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="129" t="s">
         <v>425</v>
       </c>
@@ -3698,7 +3767,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="147"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="129" t="s">
         <v>370</v>
       </c>
@@ -3710,7 +3779,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="147"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="129" t="s">
         <v>362</v>
       </c>
@@ -3722,7 +3791,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="147"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="129" t="s">
         <v>352</v>
       </c>
@@ -3734,7 +3803,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="147"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="127" t="s">
         <v>256</v>
       </c>
@@ -3746,7 +3815,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="147"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="127" t="s">
         <v>179</v>
       </c>
@@ -3758,7 +3827,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="129" t="s">
         <v>305</v>
       </c>
@@ -3770,7 +3839,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="129" t="s">
         <v>373</v>
       </c>
@@ -3782,7 +3851,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="127" t="s">
         <v>197</v>
       </c>
@@ -3794,7 +3863,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="147"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="127" t="s">
         <v>268</v>
       </c>
@@ -3806,7 +3875,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="147"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="127" t="s">
         <v>235</v>
       </c>
@@ -3818,7 +3887,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="147"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="127" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +3899,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="147"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="127" t="s">
         <v>258</v>
       </c>
@@ -3842,7 +3911,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="147"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="129" t="s">
         <v>258</v>
       </c>
@@ -3854,7 +3923,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="147"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="127" t="s">
         <v>223</v>
       </c>
@@ -3866,7 +3935,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="147"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="129" t="s">
         <v>384</v>
       </c>
@@ -3878,7 +3947,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="147"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="127" t="s">
         <v>250</v>
       </c>
@@ -3890,7 +3959,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="147"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="129" t="s">
         <v>307</v>
       </c>
@@ -3902,7 +3971,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="147"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="129" t="s">
         <v>414</v>
       </c>
@@ -3914,7 +3983,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="147"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="129" t="s">
         <v>369</v>
       </c>
@@ -3926,7 +3995,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="147"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="129" t="s">
         <v>376</v>
       </c>
@@ -3938,7 +4007,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="147"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="129" t="s">
         <v>420</v>
       </c>
@@ -3950,7 +4019,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="147"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="129" t="s">
         <v>272</v>
       </c>
@@ -3962,7 +4031,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="147"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="127" t="s">
         <v>156</v>
       </c>
@@ -3974,7 +4043,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="147"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="127" t="s">
         <v>270</v>
       </c>
@@ -3986,7 +4055,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="147"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="129" t="s">
         <v>304</v>
       </c>
@@ -3998,7 +4067,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="147"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="127" t="s">
         <v>252</v>
       </c>
@@ -4010,7 +4079,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="147"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="129" t="s">
         <v>311</v>
       </c>
@@ -4022,7 +4091,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="147"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="129" t="s">
         <v>429</v>
       </c>
@@ -4034,7 +4103,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="147"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="129" t="s">
         <v>350</v>
       </c>
@@ -4046,7 +4115,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="147"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="127" t="s">
         <v>220</v>
       </c>
@@ -4058,7 +4127,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="147"/>
+      <c r="B51" s="153"/>
       <c r="C51" s="129" t="s">
         <v>383</v>
       </c>
@@ -4070,7 +4139,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="147"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="129" t="s">
         <v>378</v>
       </c>
@@ -4082,7 +4151,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="147"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="127" t="s">
         <v>188</v>
       </c>
@@ -4094,7 +4163,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="147"/>
+      <c r="B54" s="153"/>
       <c r="C54" s="129" t="s">
         <v>293</v>
       </c>
@@ -4106,7 +4175,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="147"/>
+      <c r="B55" s="153"/>
       <c r="C55" s="129" t="s">
         <v>351</v>
       </c>
@@ -4118,7 +4187,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="147"/>
+      <c r="B56" s="153"/>
       <c r="C56" s="129" t="s">
         <v>377</v>
       </c>
@@ -4130,7 +4199,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="147"/>
+      <c r="B57" s="153"/>
       <c r="C57" s="129" t="s">
         <v>400</v>
       </c>
@@ -4142,7 +4211,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="147"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="129" t="s">
         <v>292</v>
       </c>
@@ -4154,7 +4223,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="147"/>
+      <c r="B59" s="153"/>
       <c r="C59" s="129" t="s">
         <v>375</v>
       </c>
@@ -4166,7 +4235,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="147"/>
+      <c r="B60" s="153"/>
       <c r="C60" s="127" t="s">
         <v>176</v>
       </c>
@@ -4178,7 +4247,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="147"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="127" t="s">
         <v>262</v>
       </c>
@@ -4190,7 +4259,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="147"/>
+      <c r="B62" s="153"/>
       <c r="C62" s="129" t="s">
         <v>196</v>
       </c>
@@ -4202,7 +4271,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="147"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="129" t="s">
         <v>285</v>
       </c>
@@ -4214,7 +4283,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="147"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="129" t="s">
         <v>353</v>
       </c>
@@ -4226,7 +4295,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="147"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="129" t="s">
         <v>297</v>
       </c>
@@ -4238,7 +4307,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="147"/>
+      <c r="B66" s="153"/>
       <c r="C66" s="129" t="s">
         <v>295</v>
       </c>
@@ -4250,7 +4319,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="147"/>
+      <c r="B67" s="153"/>
       <c r="C67" s="129" t="s">
         <v>289</v>
       </c>
@@ -4262,7 +4331,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="147"/>
+      <c r="B68" s="153"/>
       <c r="C68" s="127" t="s">
         <v>261</v>
       </c>
@@ -4274,7 +4343,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="147"/>
+      <c r="B69" s="153"/>
       <c r="C69" s="129" t="s">
         <v>426</v>
       </c>
@@ -4286,7 +4355,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="147"/>
+      <c r="B70" s="153"/>
       <c r="C70" s="127" t="s">
         <v>194</v>
       </c>
@@ -4298,7 +4367,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="147"/>
+      <c r="B71" s="153"/>
       <c r="C71" s="127" t="s">
         <v>165</v>
       </c>
@@ -4310,7 +4379,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="147"/>
+      <c r="B72" s="153"/>
       <c r="C72" s="127" t="s">
         <v>255</v>
       </c>
@@ -4322,7 +4391,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="147"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="129" t="s">
         <v>315</v>
       </c>
@@ -4334,7 +4403,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="147"/>
+      <c r="B74" s="153"/>
       <c r="C74" s="127" t="s">
         <v>260</v>
       </c>
@@ -4346,7 +4415,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="147"/>
+      <c r="B75" s="153"/>
       <c r="C75" s="127" t="s">
         <v>214</v>
       </c>
@@ -4358,7 +4427,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="147"/>
+      <c r="B76" s="153"/>
       <c r="C76" s="127" t="s">
         <v>226</v>
       </c>
@@ -4370,7 +4439,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="147"/>
+      <c r="B77" s="153"/>
       <c r="C77" s="129" t="s">
         <v>347</v>
       </c>
@@ -4382,7 +4451,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="147"/>
+      <c r="B78" s="153"/>
       <c r="C78" s="127" t="s">
         <v>265</v>
       </c>
@@ -4394,7 +4463,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="147"/>
+      <c r="B79" s="153"/>
       <c r="C79" s="129" t="s">
         <v>325</v>
       </c>
@@ -4406,7 +4475,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="147"/>
+      <c r="B80" s="153"/>
       <c r="C80" s="129" t="s">
         <v>296</v>
       </c>
@@ -4418,7 +4487,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="147"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="129" t="s">
         <v>74</v>
       </c>
@@ -4430,7 +4499,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="148"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="127" t="s">
         <v>269</v>
       </c>
@@ -4442,7 +4511,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="148"/>
+      <c r="B83" s="154"/>
       <c r="C83" s="129" t="s">
         <v>394</v>
       </c>
@@ -4454,7 +4523,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="148"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="129" t="s">
         <v>380</v>
       </c>
@@ -4466,7 +4535,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="148"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="127" t="s">
         <v>208</v>
       </c>
@@ -4478,7 +4547,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="148"/>
+      <c r="B86" s="154"/>
       <c r="C86" s="127" t="s">
         <v>276</v>
       </c>
@@ -4490,7 +4559,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="148"/>
+      <c r="B87" s="154"/>
       <c r="C87" s="127" t="s">
         <v>173</v>
       </c>
@@ -4502,7 +4571,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="148"/>
+      <c r="B88" s="154"/>
       <c r="C88" s="127" t="s">
         <v>248</v>
       </c>
@@ -4514,7 +4583,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="148"/>
+      <c r="B89" s="154"/>
       <c r="C89" s="129" t="s">
         <v>323</v>
       </c>
@@ -4526,7 +4595,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="148"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="127" t="s">
         <v>232</v>
       </c>
@@ -4536,7 +4605,7 @@
       <c r="E90" s="131"/>
     </row>
     <row r="91" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="148"/>
+      <c r="B91" s="154"/>
       <c r="C91" s="129" t="s">
         <v>232</v>
       </c>
@@ -4546,7 +4615,7 @@
       <c r="E91" s="131"/>
     </row>
     <row r="92" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="148"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="127" t="s">
         <v>246</v>
       </c>
@@ -4556,7 +4625,7 @@
       <c r="E92" s="131"/>
     </row>
     <row r="93" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="148"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="129" t="s">
         <v>374</v>
       </c>
@@ -4566,7 +4635,7 @@
       <c r="E93" s="131"/>
     </row>
     <row r="94" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="148"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="127" t="s">
         <v>264</v>
       </c>
@@ -4576,15 +4645,15 @@
       <c r="E94" s="131"/>
     </row>
     <row r="95" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="148"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="128" t="s">
         <v>412</v>
       </c>
-      <c r="D95" s="158"/>
+      <c r="D95" s="146"/>
       <c r="E95" s="125"/>
     </row>
     <row r="96" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="148"/>
+      <c r="B96" s="154"/>
       <c r="C96" s="129" t="s">
         <v>282</v>
       </c>
@@ -4592,7 +4661,7 @@
       <c r="E96" s="131"/>
     </row>
     <row r="97" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="148"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="129" t="s">
         <v>334</v>
       </c>
@@ -4600,7 +4669,7 @@
       <c r="E97" s="131"/>
     </row>
     <row r="98" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="148"/>
+      <c r="B98" s="154"/>
       <c r="C98" s="129" t="s">
         <v>340</v>
       </c>
@@ -4608,7 +4677,7 @@
       <c r="E98" s="131"/>
     </row>
     <row r="99" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="148"/>
+      <c r="B99" s="154"/>
       <c r="C99" s="129" t="s">
         <v>359</v>
       </c>
@@ -4616,7 +4685,7 @@
       <c r="E99" s="131"/>
     </row>
     <row r="100" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="148"/>
+      <c r="B100" s="154"/>
       <c r="C100" s="129" t="s">
         <v>367</v>
       </c>
@@ -4624,7 +4693,7 @@
       <c r="E100" s="131"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="148"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="129" t="s">
         <v>318</v>
       </c>
@@ -4632,7 +4701,7 @@
       <c r="E101" s="131"/>
     </row>
     <row r="102" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="148"/>
+      <c r="B102" s="154"/>
       <c r="C102" s="127" t="s">
         <v>211</v>
       </c>
@@ -4640,7 +4709,7 @@
       <c r="E102" s="131"/>
     </row>
     <row r="103" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="148"/>
+      <c r="B103" s="154"/>
       <c r="C103" s="129" t="s">
         <v>354</v>
       </c>
@@ -4648,7 +4717,7 @@
       <c r="E103" s="131"/>
     </row>
     <row r="104" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="148"/>
+      <c r="B104" s="154"/>
       <c r="C104" s="127" t="s">
         <v>200</v>
       </c>
@@ -4656,7 +4725,7 @@
       <c r="E104" s="131"/>
     </row>
     <row r="105" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="148"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="127" t="s">
         <v>243</v>
       </c>
@@ -4664,7 +4733,7 @@
       <c r="E105" s="131"/>
     </row>
     <row r="106" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="148"/>
+      <c r="B106" s="154"/>
       <c r="C106" s="129" t="s">
         <v>387</v>
       </c>
@@ -4672,7 +4741,7 @@
       <c r="E106" s="131"/>
     </row>
     <row r="107" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="148"/>
+      <c r="B107" s="154"/>
       <c r="C107" s="127" t="s">
         <v>257</v>
       </c>
@@ -4680,7 +4749,7 @@
       <c r="E107" s="131"/>
     </row>
     <row r="108" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="148"/>
+      <c r="B108" s="154"/>
       <c r="C108" s="127" t="s">
         <v>254</v>
       </c>
@@ -4688,7 +4757,7 @@
       <c r="E108" s="131"/>
     </row>
     <row r="109" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="148"/>
+      <c r="B109" s="154"/>
       <c r="C109" s="127" t="s">
         <v>266</v>
       </c>
@@ -4696,7 +4765,7 @@
       <c r="E109" s="131"/>
     </row>
     <row r="110" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="148"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="129" t="s">
         <v>345</v>
       </c>
@@ -4704,7 +4773,7 @@
       <c r="E110" s="131"/>
     </row>
     <row r="111" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="148"/>
+      <c r="B111" s="154"/>
       <c r="C111" s="129" t="s">
         <v>151</v>
       </c>
@@ -4712,7 +4781,7 @@
       <c r="E111" s="131"/>
     </row>
     <row r="112" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="148"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="127" t="s">
         <v>267</v>
       </c>
@@ -4720,7 +4789,7 @@
       <c r="E112" s="131"/>
     </row>
     <row r="113" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="148"/>
+      <c r="B113" s="154"/>
       <c r="C113" s="129" t="s">
         <v>357</v>
       </c>
@@ -4728,7 +4797,7 @@
       <c r="E113" s="131"/>
     </row>
     <row r="114" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="148"/>
+      <c r="B114" s="154"/>
       <c r="C114" s="129" t="s">
         <v>339</v>
       </c>
@@ -4736,7 +4805,7 @@
       <c r="E114" s="131"/>
     </row>
     <row r="115" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="148"/>
+      <c r="B115" s="154"/>
       <c r="C115" s="127" t="s">
         <v>263</v>
       </c>
@@ -4744,7 +4813,7 @@
       <c r="E115" s="131"/>
     </row>
     <row r="116" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="148"/>
+      <c r="B116" s="154"/>
       <c r="C116" s="127" t="s">
         <v>162</v>
       </c>
@@ -4752,7 +4821,7 @@
       <c r="E116" s="131"/>
     </row>
     <row r="117" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="148"/>
+      <c r="B117" s="154"/>
       <c r="C117" s="129" t="s">
         <v>349</v>
       </c>
@@ -4760,7 +4829,7 @@
       <c r="E117" s="131"/>
     </row>
     <row r="118" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="148"/>
+      <c r="B118" s="154"/>
       <c r="C118" s="129" t="s">
         <v>324</v>
       </c>
@@ -4768,7 +4837,7 @@
       <c r="E118" s="131"/>
     </row>
     <row r="119" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="148"/>
+      <c r="B119" s="154"/>
       <c r="C119" s="129" t="s">
         <v>332</v>
       </c>
@@ -4776,7 +4845,7 @@
       <c r="E119" s="131"/>
     </row>
     <row r="120" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="148"/>
+      <c r="B120" s="154"/>
       <c r="C120" s="127" t="s">
         <v>185</v>
       </c>
@@ -4784,7 +4853,7 @@
       <c r="E120" s="131"/>
     </row>
     <row r="121" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="148"/>
+      <c r="B121" s="154"/>
       <c r="C121" s="129" t="s">
         <v>309</v>
       </c>
@@ -4792,7 +4861,7 @@
       <c r="E121" s="131"/>
     </row>
     <row r="122" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="148"/>
+      <c r="B122" s="154"/>
       <c r="C122" s="127" t="s">
         <v>191</v>
       </c>
@@ -4800,7 +4869,7 @@
       <c r="E122" s="131"/>
     </row>
     <row r="123" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="148"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="129" t="s">
         <v>191</v>
       </c>
@@ -4808,7 +4877,7 @@
       <c r="E123" s="131"/>
     </row>
     <row r="124" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="148"/>
+      <c r="B124" s="154"/>
       <c r="C124" s="129" t="s">
         <v>294</v>
       </c>
@@ -4816,7 +4885,7 @@
       <c r="E124" s="131"/>
     </row>
     <row r="125" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="148"/>
+      <c r="B125" s="154"/>
       <c r="C125" s="127" t="s">
         <v>229</v>
       </c>
@@ -4824,7 +4893,7 @@
       <c r="E125" s="131"/>
     </row>
     <row r="126" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="148"/>
+      <c r="B126" s="154"/>
       <c r="C126" s="127" t="s">
         <v>217</v>
       </c>
@@ -4832,7 +4901,7 @@
       <c r="E126" s="131"/>
     </row>
     <row r="127" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="148"/>
+      <c r="B127" s="154"/>
       <c r="C127" s="127" t="s">
         <v>237</v>
       </c>
@@ -4840,7 +4909,7 @@
       <c r="E127" s="131"/>
     </row>
     <row r="128" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="148"/>
+      <c r="B128" s="154"/>
       <c r="C128" s="127" t="s">
         <v>168</v>
       </c>
@@ -4848,7 +4917,7 @@
       <c r="E128" s="131"/>
     </row>
     <row r="129" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="148"/>
+      <c r="B129" s="154"/>
       <c r="C129" s="127" t="s">
         <v>271</v>
       </c>
@@ -4856,7 +4925,7 @@
       <c r="E129" s="131"/>
     </row>
     <row r="130" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="148"/>
+      <c r="B130" s="154"/>
       <c r="C130" s="129" t="s">
         <v>381</v>
       </c>
@@ -4864,7 +4933,7 @@
       <c r="E130" s="131"/>
     </row>
     <row r="131" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="148"/>
+      <c r="B131" s="154"/>
       <c r="C131" s="129" t="s">
         <v>286</v>
       </c>
@@ -4872,7 +4941,7 @@
       <c r="E131" s="131"/>
     </row>
     <row r="132" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="148"/>
+      <c r="B132" s="154"/>
       <c r="C132" s="129" t="s">
         <v>392</v>
       </c>
@@ -4880,7 +4949,7 @@
       <c r="E132" s="131"/>
     </row>
     <row r="133" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="148"/>
+      <c r="B133" s="154"/>
       <c r="C133" s="129" t="s">
         <v>327</v>
       </c>
@@ -4888,7 +4957,7 @@
       <c r="E133" s="131"/>
     </row>
     <row r="134" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="148"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="129" t="s">
         <v>283</v>
       </c>
@@ -4896,7 +4965,7 @@
       <c r="E134" s="131"/>
     </row>
     <row r="135" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="148"/>
+      <c r="B135" s="154"/>
       <c r="C135" s="127" t="s">
         <v>259</v>
       </c>
@@ -4904,7 +4973,7 @@
       <c r="E135" s="131"/>
     </row>
     <row r="136" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="148"/>
+      <c r="B136" s="154"/>
       <c r="C136" s="129" t="s">
         <v>199</v>
       </c>
@@ -4912,7 +4981,7 @@
       <c r="E136" s="131"/>
     </row>
     <row r="137" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="148"/>
+      <c r="B137" s="154"/>
       <c r="C137" s="129" t="s">
         <v>372</v>
       </c>
@@ -4920,7 +4989,7 @@
       <c r="E137" s="131"/>
     </row>
     <row r="138" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="148"/>
+      <c r="B138" s="154"/>
       <c r="C138" s="129" t="s">
         <v>398</v>
       </c>
@@ -4928,79 +4997,79 @@
       <c r="E138" s="131"/>
     </row>
     <row r="139" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="148"/>
+      <c r="B139" s="154"/>
       <c r="C139" s="129"/>
       <c r="D139" s="125"/>
       <c r="E139" s="131"/>
     </row>
     <row r="140" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="148"/>
+      <c r="B140" s="154"/>
       <c r="C140" s="129"/>
       <c r="D140" s="125"/>
       <c r="E140" s="131"/>
     </row>
     <row r="141" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="148"/>
+      <c r="B141" s="154"/>
       <c r="C141" s="129"/>
       <c r="D141" s="125"/>
       <c r="E141" s="131"/>
     </row>
     <row r="142" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="148"/>
+      <c r="B142" s="154"/>
       <c r="C142" s="129"/>
       <c r="D142" s="125"/>
       <c r="E142" s="131"/>
     </row>
     <row r="143" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="148"/>
+      <c r="B143" s="154"/>
       <c r="C143" s="129"/>
       <c r="D143" s="125"/>
       <c r="E143" s="131"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="148"/>
+      <c r="B144" s="154"/>
       <c r="C144" s="129"/>
       <c r="D144" s="125"/>
       <c r="E144" s="131"/>
     </row>
     <row r="145" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="148"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="129"/>
       <c r="D145" s="125"/>
       <c r="E145" s="131"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="148"/>
+      <c r="B146" s="154"/>
       <c r="C146" s="129"/>
       <c r="D146" s="125"/>
       <c r="E146" s="131"/>
     </row>
     <row r="147" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="148"/>
+      <c r="B147" s="154"/>
       <c r="C147" s="129"/>
       <c r="D147" s="125"/>
       <c r="E147" s="131"/>
     </row>
     <row r="148" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="148"/>
+      <c r="B148" s="154"/>
       <c r="C148" s="129"/>
       <c r="D148" s="125"/>
       <c r="E148" s="131"/>
     </row>
     <row r="149" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="148"/>
+      <c r="B149" s="154"/>
       <c r="C149" s="129"/>
       <c r="D149" s="125"/>
       <c r="E149" s="131"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="148"/>
+      <c r="B150" s="154"/>
       <c r="C150" s="129"/>
       <c r="D150" s="125"/>
       <c r="E150" s="131"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="146" t="s">
+      <c r="B151" s="152" t="s">
         <v>60</v>
       </c>
       <c r="C151" s="133" t="s">
@@ -5010,7 +5079,7 @@
       <c r="E151" s="134"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="148"/>
+      <c r="B152" s="154"/>
       <c r="C152" s="129" t="s">
         <v>401</v>
       </c>
@@ -5018,49 +5087,49 @@
       <c r="E152" s="131"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="148"/>
+      <c r="B153" s="154"/>
       <c r="C153" s="129"/>
       <c r="D153" s="125"/>
       <c r="E153" s="131"/>
     </row>
     <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="148"/>
+      <c r="B154" s="154"/>
       <c r="C154" s="129"/>
       <c r="D154" s="125"/>
       <c r="E154" s="131"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="148"/>
+      <c r="B155" s="154"/>
       <c r="C155" s="129"/>
       <c r="D155" s="125"/>
       <c r="E155" s="131"/>
     </row>
     <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="148"/>
+      <c r="B156" s="154"/>
       <c r="C156" s="129"/>
       <c r="D156" s="125"/>
       <c r="E156" s="131"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="148"/>
+      <c r="B157" s="154"/>
       <c r="C157" s="129"/>
       <c r="D157" s="125"/>
       <c r="E157" s="131"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="148"/>
+      <c r="B158" s="154"/>
       <c r="C158" s="129"/>
       <c r="D158" s="125"/>
       <c r="E158" s="131"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="149"/>
+      <c r="B159" s="155"/>
       <c r="C159" s="135"/>
       <c r="D159" s="140"/>
       <c r="E159" s="132"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="146" t="s">
+      <c r="B160" s="152" t="s">
         <v>61</v>
       </c>
       <c r="C160" s="133"/>
@@ -5068,55 +5137,55 @@
       <c r="E160" s="134"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="148"/>
+      <c r="B161" s="154"/>
       <c r="C161" s="129"/>
       <c r="D161" s="125"/>
       <c r="E161" s="131"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="148"/>
+      <c r="B162" s="154"/>
       <c r="C162" s="129"/>
       <c r="D162" s="125"/>
       <c r="E162" s="131"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="148"/>
+      <c r="B163" s="154"/>
       <c r="C163" s="129"/>
       <c r="D163" s="125"/>
       <c r="E163" s="131"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="148"/>
+      <c r="B164" s="154"/>
       <c r="C164" s="129"/>
       <c r="D164" s="125"/>
       <c r="E164" s="131"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="148"/>
+      <c r="B165" s="154"/>
       <c r="C165" s="129"/>
       <c r="D165" s="125"/>
       <c r="E165" s="131"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="148"/>
+      <c r="B166" s="154"/>
       <c r="C166" s="129"/>
       <c r="D166" s="125"/>
       <c r="E166" s="131"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="148"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="129"/>
       <c r="D167" s="125"/>
       <c r="E167" s="131"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="148"/>
+      <c r="B168" s="154"/>
       <c r="C168" s="127"/>
       <c r="D168" s="125"/>
       <c r="E168" s="131"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="149"/>
+      <c r="B169" s="155"/>
       <c r="C169" s="136"/>
       <c r="D169" s="140"/>
       <c r="E169" s="132"/>
@@ -5140,18 +5209,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36" style="126" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="49.5703125" customWidth="1"/>
     <col min="7" max="7" width="46.140625" customWidth="1"/>
@@ -5170,22 +5239,22 @@
     </row>
     <row r="3" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="100"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5252,13 +5321,13 @@
       <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="161" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="159" t="s">
+      <c r="D11" s="149" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="147" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -5268,146 +5337,312 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
-      <c r="C12" s="102" t="s">
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="164"/>
+      <c r="C12" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="29" t="s">
+        <v>451</v>
+      </c>
       <c r="F12" s="45"/>
       <c r="G12" s="100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="100" t="s">
+    <row r="13" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="164"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="145"/>
+    </row>
+    <row r="14" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="164"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="145"/>
+    </row>
+    <row r="15" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="164"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="145"/>
+    </row>
+    <row r="16" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="164"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="145"/>
+    </row>
+    <row r="17" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="164"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="145"/>
+    </row>
+    <row r="18" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="164"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="145"/>
+    </row>
+    <row r="19" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="164"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="145"/>
+    </row>
+    <row r="20" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="164"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="145"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="164"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="100" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C14" s="126" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="165"/>
+      <c r="C22" s="169" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="170"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="165"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="165"/>
+      <c r="C24" s="169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="170"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="165"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="165"/>
+      <c r="C26" s="169" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="170"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+    </row>
+    <row r="27" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="165"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+    </row>
+    <row r="28" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="165"/>
+      <c r="C28" s="169" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" s="170"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+    </row>
+    <row r="29" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="165"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+    </row>
+    <row r="30" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="165"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148" t="s">
         <v>435</v>
       </c>
-      <c r="D18" s="126" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+    </row>
+    <row r="31" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="165"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="126" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+    </row>
+    <row r="32" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="165"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148" t="s">
         <v>437</v>
       </c>
-      <c r="D22" s="126" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+    </row>
+    <row r="33" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="165"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="126" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+    </row>
+    <row r="34" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="165"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148" t="s">
+        <v>445</v>
+      </c>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="165"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" s="126" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D27" s="126" t="s">
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+    </row>
+    <row r="36" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="165"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="165"/>
+      <c r="C37" s="169" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="170"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+    </row>
+    <row r="38" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="165"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="165"/>
+      <c r="C39" s="169" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="126" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" s="126" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D29" s="126" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="126" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="126" t="s">
+      <c r="D39" s="170"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+    </row>
+    <row r="40" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="165"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="126" t="s">
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+    </row>
+    <row r="41" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="165"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" s="126" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D34" s="126" t="s">
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+    </row>
+    <row r="42" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="165"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="126" t="s">
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+    </row>
+    <row r="43" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="165"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="126" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="126" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="126" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="102" t="s">
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="144"/>
+    </row>
+    <row r="45" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="144"/>
+    </row>
+    <row r="46" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="144"/>
+    </row>
+    <row r="47" spans="2:6" s="126" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="5:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="5:5" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="5:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="5:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="102" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -5596,13 +5831,13 @@
       <c r="J11" s="102"/>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
       <c r="P11" s="102"/>
       <c r="Q11" s="102"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="154"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160"/>
     </row>
     <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G12" s="27"/>
@@ -5808,9 +6043,9 @@
       <c r="W23" s="102"/>
     </row>
     <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G24" s="152"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
       <c r="J24" s="102"/>
       <c r="K24" s="102"/>
       <c r="L24" s="102"/>
@@ -5846,9 +6081,9 @@
       <c r="W25" s="102"/>
     </row>
     <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G26" s="152"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
       <c r="L26" s="102"/>
@@ -5893,14 +6128,14 @@
       <c r="M28" s="102"/>
       <c r="N28" s="102"/>
       <c r="O28" s="102"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
       <c r="S28" s="102"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5942,14 +6177,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="100"/>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
@@ -6072,12 +6307,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -6100,10 +6335,10 @@
       <c r="E6" s="103"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="145"/>
+      <c r="C7" s="151"/>
       <c r="G7" s="103" t="s">
         <v>103</v>
       </c>
@@ -6212,13 +6447,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="105"/>
       <c r="C1" s="106"/>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="105"/>
@@ -6382,12 +6617,12 @@
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="92"/>

--- a/document/projet_td.xlsx
+++ b/document/projet_td.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\Techniques de l'informatique\Tower-Defense-2.0\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1963411\Documents\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7179B295-4FC9-4B37-A0FA-D006B93BB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C304BE5D-E804-4EC4-8882-0B39C1345440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -2710,6 +2710,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2733,6 +2748,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2750,33 +2777,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3468,22 +3468,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="102"/>
@@ -3492,22 +3492,22 @@
       <c r="I39" s="102"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="102"/>
@@ -3522,34 +3522,34 @@
       <c r="I44" s="102"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="150"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3669,7 +3669,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="159" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="133" t="s">
@@ -3683,7 +3683,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="153"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="127" t="s">
         <v>240</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="153"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="129" t="s">
         <v>388</v>
       </c>
@@ -3707,7 +3707,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="153"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="127" t="s">
         <v>152</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="153"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="129" t="s">
         <v>390</v>
       </c>
@@ -3731,7 +3731,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="153"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="127" t="s">
         <v>182</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="153"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="127" t="s">
         <v>205</v>
       </c>
@@ -3755,7 +3755,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="153"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="129" t="s">
         <v>425</v>
       </c>
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="153"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="129" t="s">
         <v>370</v>
       </c>
@@ -3779,7 +3779,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="153"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="129" t="s">
         <v>362</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="153"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="129" t="s">
         <v>352</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="153"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="127" t="s">
         <v>256</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="153"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="127" t="s">
         <v>179</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="153"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="129" t="s">
         <v>305</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="153"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="129" t="s">
         <v>373</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="153"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="127" t="s">
         <v>197</v>
       </c>
@@ -3863,7 +3863,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="153"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="127" t="s">
         <v>268</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="153"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="127" t="s">
         <v>235</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="153"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="127" t="s">
         <v>159</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="153"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="127" t="s">
         <v>258</v>
       </c>
@@ -3911,7 +3911,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="153"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="129" t="s">
         <v>258</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="153"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="127" t="s">
         <v>223</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="153"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="129" t="s">
         <v>384</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="153"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="127" t="s">
         <v>250</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="153"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="129" t="s">
         <v>307</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="153"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="129" t="s">
         <v>414</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="153"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="129" t="s">
         <v>369</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="153"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="129" t="s">
         <v>376</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="153"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="129" t="s">
         <v>420</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="153"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="129" t="s">
         <v>272</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="153"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="127" t="s">
         <v>156</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="153"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="127" t="s">
         <v>270</v>
       </c>
@@ -4055,7 +4055,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="153"/>
+      <c r="B45" s="160"/>
       <c r="C45" s="129" t="s">
         <v>304</v>
       </c>
@@ -4067,7 +4067,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="153"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="127" t="s">
         <v>252</v>
       </c>
@@ -4079,7 +4079,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="153"/>
+      <c r="B47" s="160"/>
       <c r="C47" s="129" t="s">
         <v>311</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="153"/>
+      <c r="B48" s="160"/>
       <c r="C48" s="129" t="s">
         <v>429</v>
       </c>
@@ -4103,7 +4103,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="153"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="129" t="s">
         <v>350</v>
       </c>
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="153"/>
+      <c r="B50" s="160"/>
       <c r="C50" s="127" t="s">
         <v>220</v>
       </c>
@@ -4127,7 +4127,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="153"/>
+      <c r="B51" s="160"/>
       <c r="C51" s="129" t="s">
         <v>383</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="153"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="129" t="s">
         <v>378</v>
       </c>
@@ -4151,7 +4151,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="153"/>
+      <c r="B53" s="160"/>
       <c r="C53" s="127" t="s">
         <v>188</v>
       </c>
@@ -4163,7 +4163,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="153"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="129" t="s">
         <v>293</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="153"/>
+      <c r="B55" s="160"/>
       <c r="C55" s="129" t="s">
         <v>351</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="153"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="129" t="s">
         <v>377</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="153"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="129" t="s">
         <v>400</v>
       </c>
@@ -4211,7 +4211,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="153"/>
+      <c r="B58" s="160"/>
       <c r="C58" s="129" t="s">
         <v>292</v>
       </c>
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="153"/>
+      <c r="B59" s="160"/>
       <c r="C59" s="129" t="s">
         <v>375</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="153"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="127" t="s">
         <v>176</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="153"/>
+      <c r="B61" s="160"/>
       <c r="C61" s="127" t="s">
         <v>262</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="153"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="129" t="s">
         <v>196</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="153"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="129" t="s">
         <v>285</v>
       </c>
@@ -4283,7 +4283,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="153"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="129" t="s">
         <v>353</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="153"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="129" t="s">
         <v>297</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="153"/>
+      <c r="B66" s="160"/>
       <c r="C66" s="129" t="s">
         <v>295</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="153"/>
+      <c r="B67" s="160"/>
       <c r="C67" s="129" t="s">
         <v>289</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="153"/>
+      <c r="B68" s="160"/>
       <c r="C68" s="127" t="s">
         <v>261</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="153"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="129" t="s">
         <v>426</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="153"/>
+      <c r="B70" s="160"/>
       <c r="C70" s="127" t="s">
         <v>194</v>
       </c>
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="153"/>
+      <c r="B71" s="160"/>
       <c r="C71" s="127" t="s">
         <v>165</v>
       </c>
@@ -4379,7 +4379,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="153"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="127" t="s">
         <v>255</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="153"/>
+      <c r="B73" s="160"/>
       <c r="C73" s="129" t="s">
         <v>315</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="153"/>
+      <c r="B74" s="160"/>
       <c r="C74" s="127" t="s">
         <v>260</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="153"/>
+      <c r="B75" s="160"/>
       <c r="C75" s="127" t="s">
         <v>214</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="153"/>
+      <c r="B76" s="160"/>
       <c r="C76" s="127" t="s">
         <v>226</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="153"/>
+      <c r="B77" s="160"/>
       <c r="C77" s="129" t="s">
         <v>347</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="153"/>
+      <c r="B78" s="160"/>
       <c r="C78" s="127" t="s">
         <v>265</v>
       </c>
@@ -4463,7 +4463,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="153"/>
+      <c r="B79" s="160"/>
       <c r="C79" s="129" t="s">
         <v>325</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="153"/>
+      <c r="B80" s="160"/>
       <c r="C80" s="129" t="s">
         <v>296</v>
       </c>
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="153"/>
+      <c r="B81" s="160"/>
       <c r="C81" s="129" t="s">
         <v>74</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="154"/>
+      <c r="B82" s="161"/>
       <c r="C82" s="127" t="s">
         <v>269</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="154"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="129" t="s">
         <v>394</v>
       </c>
@@ -4523,7 +4523,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="154"/>
+      <c r="B84" s="161"/>
       <c r="C84" s="129" t="s">
         <v>380</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="154"/>
+      <c r="B85" s="161"/>
       <c r="C85" s="127" t="s">
         <v>208</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="154"/>
+      <c r="B86" s="161"/>
       <c r="C86" s="127" t="s">
         <v>276</v>
       </c>
@@ -4559,7 +4559,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="154"/>
+      <c r="B87" s="161"/>
       <c r="C87" s="127" t="s">
         <v>173</v>
       </c>
@@ -4571,7 +4571,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="154"/>
+      <c r="B88" s="161"/>
       <c r="C88" s="127" t="s">
         <v>248</v>
       </c>
@@ -4583,7 +4583,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="154"/>
+      <c r="B89" s="161"/>
       <c r="C89" s="129" t="s">
         <v>323</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="154"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="127" t="s">
         <v>232</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="E90" s="131"/>
     </row>
     <row r="91" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="154"/>
+      <c r="B91" s="161"/>
       <c r="C91" s="129" t="s">
         <v>232</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="E91" s="131"/>
     </row>
     <row r="92" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="154"/>
+      <c r="B92" s="161"/>
       <c r="C92" s="127" t="s">
         <v>246</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="E92" s="131"/>
     </row>
     <row r="93" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="154"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="129" t="s">
         <v>374</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="E93" s="131"/>
     </row>
     <row r="94" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="154"/>
+      <c r="B94" s="161"/>
       <c r="C94" s="127" t="s">
         <v>264</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="E94" s="131"/>
     </row>
     <row r="95" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="154"/>
+      <c r="B95" s="161"/>
       <c r="C95" s="128" t="s">
         <v>412</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="E95" s="125"/>
     </row>
     <row r="96" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="154"/>
+      <c r="B96" s="161"/>
       <c r="C96" s="129" t="s">
         <v>282</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="E96" s="131"/>
     </row>
     <row r="97" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="154"/>
+      <c r="B97" s="161"/>
       <c r="C97" s="129" t="s">
         <v>334</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="E97" s="131"/>
     </row>
     <row r="98" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="154"/>
+      <c r="B98" s="161"/>
       <c r="C98" s="129" t="s">
         <v>340</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="E98" s="131"/>
     </row>
     <row r="99" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="154"/>
+      <c r="B99" s="161"/>
       <c r="C99" s="129" t="s">
         <v>359</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="E99" s="131"/>
     </row>
     <row r="100" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="154"/>
+      <c r="B100" s="161"/>
       <c r="C100" s="129" t="s">
         <v>367</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="E100" s="131"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="154"/>
+      <c r="B101" s="161"/>
       <c r="C101" s="129" t="s">
         <v>318</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="E101" s="131"/>
     </row>
     <row r="102" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="154"/>
+      <c r="B102" s="161"/>
       <c r="C102" s="127" t="s">
         <v>211</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="E102" s="131"/>
     </row>
     <row r="103" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="154"/>
+      <c r="B103" s="161"/>
       <c r="C103" s="129" t="s">
         <v>354</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="E103" s="131"/>
     </row>
     <row r="104" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="154"/>
+      <c r="B104" s="161"/>
       <c r="C104" s="127" t="s">
         <v>200</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="E104" s="131"/>
     </row>
     <row r="105" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="154"/>
+      <c r="B105" s="161"/>
       <c r="C105" s="127" t="s">
         <v>243</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="E105" s="131"/>
     </row>
     <row r="106" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="154"/>
+      <c r="B106" s="161"/>
       <c r="C106" s="129" t="s">
         <v>387</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="E106" s="131"/>
     </row>
     <row r="107" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="154"/>
+      <c r="B107" s="161"/>
       <c r="C107" s="127" t="s">
         <v>257</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="E107" s="131"/>
     </row>
     <row r="108" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="154"/>
+      <c r="B108" s="161"/>
       <c r="C108" s="127" t="s">
         <v>254</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="E108" s="131"/>
     </row>
     <row r="109" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="154"/>
+      <c r="B109" s="161"/>
       <c r="C109" s="127" t="s">
         <v>266</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="E109" s="131"/>
     </row>
     <row r="110" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="154"/>
+      <c r="B110" s="161"/>
       <c r="C110" s="129" t="s">
         <v>345</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="E110" s="131"/>
     </row>
     <row r="111" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="154"/>
+      <c r="B111" s="161"/>
       <c r="C111" s="129" t="s">
         <v>151</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="E111" s="131"/>
     </row>
     <row r="112" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="154"/>
+      <c r="B112" s="161"/>
       <c r="C112" s="127" t="s">
         <v>267</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="E112" s="131"/>
     </row>
     <row r="113" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="154"/>
+      <c r="B113" s="161"/>
       <c r="C113" s="129" t="s">
         <v>357</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="E113" s="131"/>
     </row>
     <row r="114" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="154"/>
+      <c r="B114" s="161"/>
       <c r="C114" s="129" t="s">
         <v>339</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="E114" s="131"/>
     </row>
     <row r="115" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="154"/>
+      <c r="B115" s="161"/>
       <c r="C115" s="127" t="s">
         <v>263</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="E115" s="131"/>
     </row>
     <row r="116" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="154"/>
+      <c r="B116" s="161"/>
       <c r="C116" s="127" t="s">
         <v>162</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="E116" s="131"/>
     </row>
     <row r="117" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="154"/>
+      <c r="B117" s="161"/>
       <c r="C117" s="129" t="s">
         <v>349</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="E117" s="131"/>
     </row>
     <row r="118" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="154"/>
+      <c r="B118" s="161"/>
       <c r="C118" s="129" t="s">
         <v>324</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="E118" s="131"/>
     </row>
     <row r="119" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="154"/>
+      <c r="B119" s="161"/>
       <c r="C119" s="129" t="s">
         <v>332</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="E119" s="131"/>
     </row>
     <row r="120" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="154"/>
+      <c r="B120" s="161"/>
       <c r="C120" s="127" t="s">
         <v>185</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="E120" s="131"/>
     </row>
     <row r="121" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="154"/>
+      <c r="B121" s="161"/>
       <c r="C121" s="129" t="s">
         <v>309</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="E121" s="131"/>
     </row>
     <row r="122" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="154"/>
+      <c r="B122" s="161"/>
       <c r="C122" s="127" t="s">
         <v>191</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="E122" s="131"/>
     </row>
     <row r="123" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="154"/>
+      <c r="B123" s="161"/>
       <c r="C123" s="129" t="s">
         <v>191</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="E123" s="131"/>
     </row>
     <row r="124" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="154"/>
+      <c r="B124" s="161"/>
       <c r="C124" s="129" t="s">
         <v>294</v>
       </c>
@@ -4885,7 +4885,7 @@
       <c r="E124" s="131"/>
     </row>
     <row r="125" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="154"/>
+      <c r="B125" s="161"/>
       <c r="C125" s="127" t="s">
         <v>229</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="E125" s="131"/>
     </row>
     <row r="126" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="154"/>
+      <c r="B126" s="161"/>
       <c r="C126" s="127" t="s">
         <v>217</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="E126" s="131"/>
     </row>
     <row r="127" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="154"/>
+      <c r="B127" s="161"/>
       <c r="C127" s="127" t="s">
         <v>237</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="E127" s="131"/>
     </row>
     <row r="128" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="154"/>
+      <c r="B128" s="161"/>
       <c r="C128" s="127" t="s">
         <v>168</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="E128" s="131"/>
     </row>
     <row r="129" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="154"/>
+      <c r="B129" s="161"/>
       <c r="C129" s="127" t="s">
         <v>271</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="E129" s="131"/>
     </row>
     <row r="130" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="154"/>
+      <c r="B130" s="161"/>
       <c r="C130" s="129" t="s">
         <v>381</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="E130" s="131"/>
     </row>
     <row r="131" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="154"/>
+      <c r="B131" s="161"/>
       <c r="C131" s="129" t="s">
         <v>286</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="E131" s="131"/>
     </row>
     <row r="132" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="154"/>
+      <c r="B132" s="161"/>
       <c r="C132" s="129" t="s">
         <v>392</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="E132" s="131"/>
     </row>
     <row r="133" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="154"/>
+      <c r="B133" s="161"/>
       <c r="C133" s="129" t="s">
         <v>327</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="E133" s="131"/>
     </row>
     <row r="134" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="154"/>
+      <c r="B134" s="161"/>
       <c r="C134" s="129" t="s">
         <v>283</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="E134" s="131"/>
     </row>
     <row r="135" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="154"/>
+      <c r="B135" s="161"/>
       <c r="C135" s="127" t="s">
         <v>259</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="E135" s="131"/>
     </row>
     <row r="136" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="154"/>
+      <c r="B136" s="161"/>
       <c r="C136" s="129" t="s">
         <v>199</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="E136" s="131"/>
     </row>
     <row r="137" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="154"/>
+      <c r="B137" s="161"/>
       <c r="C137" s="129" t="s">
         <v>372</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="E137" s="131"/>
     </row>
     <row r="138" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="154"/>
+      <c r="B138" s="161"/>
       <c r="C138" s="129" t="s">
         <v>398</v>
       </c>
@@ -4997,79 +4997,79 @@
       <c r="E138" s="131"/>
     </row>
     <row r="139" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="154"/>
+      <c r="B139" s="161"/>
       <c r="C139" s="129"/>
       <c r="D139" s="125"/>
       <c r="E139" s="131"/>
     </row>
     <row r="140" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="154"/>
+      <c r="B140" s="161"/>
       <c r="C140" s="129"/>
       <c r="D140" s="125"/>
       <c r="E140" s="131"/>
     </row>
     <row r="141" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="154"/>
+      <c r="B141" s="161"/>
       <c r="C141" s="129"/>
       <c r="D141" s="125"/>
       <c r="E141" s="131"/>
     </row>
     <row r="142" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="154"/>
+      <c r="B142" s="161"/>
       <c r="C142" s="129"/>
       <c r="D142" s="125"/>
       <c r="E142" s="131"/>
     </row>
     <row r="143" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="154"/>
+      <c r="B143" s="161"/>
       <c r="C143" s="129"/>
       <c r="D143" s="125"/>
       <c r="E143" s="131"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="154"/>
+      <c r="B144" s="161"/>
       <c r="C144" s="129"/>
       <c r="D144" s="125"/>
       <c r="E144" s="131"/>
     </row>
     <row r="145" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="154"/>
+      <c r="B145" s="161"/>
       <c r="C145" s="129"/>
       <c r="D145" s="125"/>
       <c r="E145" s="131"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="154"/>
+      <c r="B146" s="161"/>
       <c r="C146" s="129"/>
       <c r="D146" s="125"/>
       <c r="E146" s="131"/>
     </row>
     <row r="147" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="154"/>
+      <c r="B147" s="161"/>
       <c r="C147" s="129"/>
       <c r="D147" s="125"/>
       <c r="E147" s="131"/>
     </row>
     <row r="148" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="154"/>
+      <c r="B148" s="161"/>
       <c r="C148" s="129"/>
       <c r="D148" s="125"/>
       <c r="E148" s="131"/>
     </row>
     <row r="149" spans="2:5" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="154"/>
+      <c r="B149" s="161"/>
       <c r="C149" s="129"/>
       <c r="D149" s="125"/>
       <c r="E149" s="131"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="154"/>
+      <c r="B150" s="161"/>
       <c r="C150" s="129"/>
       <c r="D150" s="125"/>
       <c r="E150" s="131"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="152" t="s">
+      <c r="B151" s="159" t="s">
         <v>60</v>
       </c>
       <c r="C151" s="133" t="s">
@@ -5079,7 +5079,7 @@
       <c r="E151" s="134"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="154"/>
+      <c r="B152" s="161"/>
       <c r="C152" s="129" t="s">
         <v>401</v>
       </c>
@@ -5087,49 +5087,49 @@
       <c r="E152" s="131"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="154"/>
+      <c r="B153" s="161"/>
       <c r="C153" s="129"/>
       <c r="D153" s="125"/>
       <c r="E153" s="131"/>
     </row>
     <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="154"/>
+      <c r="B154" s="161"/>
       <c r="C154" s="129"/>
       <c r="D154" s="125"/>
       <c r="E154" s="131"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="154"/>
+      <c r="B155" s="161"/>
       <c r="C155" s="129"/>
       <c r="D155" s="125"/>
       <c r="E155" s="131"/>
     </row>
     <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="154"/>
+      <c r="B156" s="161"/>
       <c r="C156" s="129"/>
       <c r="D156" s="125"/>
       <c r="E156" s="131"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="154"/>
+      <c r="B157" s="161"/>
       <c r="C157" s="129"/>
       <c r="D157" s="125"/>
       <c r="E157" s="131"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="154"/>
+      <c r="B158" s="161"/>
       <c r="C158" s="129"/>
       <c r="D158" s="125"/>
       <c r="E158" s="131"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="155"/>
+      <c r="B159" s="162"/>
       <c r="C159" s="135"/>
       <c r="D159" s="140"/>
       <c r="E159" s="132"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="152" t="s">
+      <c r="B160" s="159" t="s">
         <v>61</v>
       </c>
       <c r="C160" s="133"/>
@@ -5137,55 +5137,55 @@
       <c r="E160" s="134"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="154"/>
+      <c r="B161" s="161"/>
       <c r="C161" s="129"/>
       <c r="D161" s="125"/>
       <c r="E161" s="131"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="154"/>
+      <c r="B162" s="161"/>
       <c r="C162" s="129"/>
       <c r="D162" s="125"/>
       <c r="E162" s="131"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="154"/>
+      <c r="B163" s="161"/>
       <c r="C163" s="129"/>
       <c r="D163" s="125"/>
       <c r="E163" s="131"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="154"/>
+      <c r="B164" s="161"/>
       <c r="C164" s="129"/>
       <c r="D164" s="125"/>
       <c r="E164" s="131"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="154"/>
+      <c r="B165" s="161"/>
       <c r="C165" s="129"/>
       <c r="D165" s="125"/>
       <c r="E165" s="131"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="154"/>
+      <c r="B166" s="161"/>
       <c r="C166" s="129"/>
       <c r="D166" s="125"/>
       <c r="E166" s="131"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="154"/>
+      <c r="B167" s="161"/>
       <c r="C167" s="129"/>
       <c r="D167" s="125"/>
       <c r="E167" s="131"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="154"/>
+      <c r="B168" s="161"/>
       <c r="C168" s="127"/>
       <c r="D168" s="125"/>
       <c r="E168" s="131"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="155"/>
+      <c r="B169" s="162"/>
       <c r="C169" s="136"/>
       <c r="D169" s="140"/>
       <c r="E169" s="132"/>
@@ -5211,8 +5211,8 @@
   </sheetPr>
   <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5239,22 +5239,22 @@
     </row>
     <row r="3" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="100"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5321,7 @@
       <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="152" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="149" t="s">
@@ -5338,7 +5338,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="164"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="167" t="s">
         <v>432</v>
       </c>
@@ -5352,72 +5352,72 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="164"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="29"/>
       <c r="F13" s="45"/>
       <c r="G13" s="145"/>
     </row>
     <row r="14" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="29"/>
       <c r="F14" s="45"/>
       <c r="G14" s="145"/>
     </row>
     <row r="15" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="164"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="29"/>
       <c r="F15" s="45"/>
       <c r="G15" s="145"/>
     </row>
     <row r="16" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="164"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="172"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="29"/>
       <c r="F16" s="45"/>
       <c r="G16" s="145"/>
     </row>
     <row r="17" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="164"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="29"/>
       <c r="F17" s="45"/>
       <c r="G17" s="145"/>
     </row>
     <row r="18" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
       <c r="E18" s="29"/>
       <c r="F18" s="45"/>
       <c r="G18" s="145"/>
     </row>
     <row r="19" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
       <c r="E19" s="29"/>
       <c r="F19" s="45"/>
       <c r="G19" s="145"/>
     </row>
     <row r="20" spans="2:7" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="164"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="172"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
       <c r="E20" s="29"/>
       <c r="F20" s="45"/>
       <c r="G20" s="145"/>
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="164"/>
-      <c r="C21" s="173"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="155"/>
       <c r="D21" s="148"/>
       <c r="E21" s="148"/>
       <c r="F21" s="21"/>
@@ -5426,64 +5426,64 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="165"/>
-      <c r="C22" s="169" t="s">
+      <c r="B22" s="151"/>
+      <c r="C22" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="D22" s="170"/>
+      <c r="D22" s="166"/>
       <c r="E22" s="148"/>
       <c r="F22" s="148"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="165"/>
-      <c r="C23" s="173"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="148"/>
       <c r="E23" s="148"/>
       <c r="F23" s="148"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="165"/>
-      <c r="C24" s="169" t="s">
+      <c r="B24" s="151"/>
+      <c r="C24" s="165" t="s">
         <v>440</v>
       </c>
-      <c r="D24" s="170"/>
+      <c r="D24" s="166"/>
       <c r="E24" s="148"/>
       <c r="F24" s="148"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="165"/>
-      <c r="C25" s="173"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="148"/>
       <c r="E25" s="148"/>
       <c r="F25" s="148"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="169" t="s">
+      <c r="B26" s="151"/>
+      <c r="C26" s="165" t="s">
         <v>442</v>
       </c>
-      <c r="D26" s="170"/>
+      <c r="D26" s="166"/>
       <c r="E26" s="148"/>
       <c r="F26" s="148"/>
     </row>
     <row r="27" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="165"/>
-      <c r="C27" s="174"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="148"/>
       <c r="E27" s="148"/>
       <c r="F27" s="148"/>
     </row>
     <row r="28" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="165"/>
-      <c r="C28" s="169" t="s">
+      <c r="B28" s="151"/>
+      <c r="C28" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="D28" s="170"/>
+      <c r="D28" s="166"/>
       <c r="E28" s="148"/>
       <c r="F28" s="148"/>
     </row>
     <row r="29" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="165"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="148"/>
       <c r="D29" s="148" t="s">
         <v>434</v>
@@ -5492,7 +5492,7 @@
       <c r="F29" s="148"/>
     </row>
     <row r="30" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="165"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="148"/>
       <c r="D30" s="148" t="s">
         <v>435</v>
@@ -5501,7 +5501,7 @@
       <c r="F30" s="148"/>
     </row>
     <row r="31" spans="2:7" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="165"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="148"/>
       <c r="D31" s="148" t="s">
         <v>436</v>
@@ -5510,7 +5510,7 @@
       <c r="F31" s="148"/>
     </row>
     <row r="32" spans="2:7" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="165"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="148"/>
       <c r="D32" s="148" t="s">
         <v>437</v>
@@ -5519,7 +5519,7 @@
       <c r="F32" s="148"/>
     </row>
     <row r="33" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="165"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="148"/>
       <c r="D33" s="148" t="s">
         <v>438</v>
@@ -5528,7 +5528,7 @@
       <c r="F33" s="148"/>
     </row>
     <row r="34" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="165"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="148"/>
       <c r="D34" s="148" t="s">
         <v>445</v>
@@ -5537,7 +5537,7 @@
       <c r="F34" s="148"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="165"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="148"/>
       <c r="D35" s="148" t="s">
         <v>439</v>
@@ -5546,39 +5546,39 @@
       <c r="F35" s="148"/>
     </row>
     <row r="36" spans="2:6" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="165"/>
-      <c r="C36" s="174"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="148"/>
       <c r="E36" s="148"/>
       <c r="F36" s="148"/>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="165"/>
-      <c r="C37" s="169" t="s">
+      <c r="B37" s="151"/>
+      <c r="C37" s="165" t="s">
         <v>446</v>
       </c>
-      <c r="D37" s="170"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="148"/>
       <c r="F37" s="148"/>
     </row>
     <row r="38" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="165"/>
-      <c r="C38" s="174"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="156"/>
       <c r="D38" s="148"/>
       <c r="E38" s="148"/>
       <c r="F38" s="148"/>
     </row>
     <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="165"/>
-      <c r="C39" s="169" t="s">
+      <c r="B39" s="151"/>
+      <c r="C39" s="165" t="s">
         <v>443</v>
       </c>
-      <c r="D39" s="170"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="148"/>
       <c r="F39" s="148"/>
     </row>
     <row r="40" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="165"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="148"/>
       <c r="D40" s="148" t="s">
         <v>447</v>
@@ -5587,7 +5587,7 @@
       <c r="F40" s="148"/>
     </row>
     <row r="41" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="165"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="148"/>
       <c r="D41" s="148" t="s">
         <v>448</v>
@@ -5596,7 +5596,7 @@
       <c r="F41" s="148"/>
     </row>
     <row r="42" spans="2:6" s="126" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="165"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="148"/>
       <c r="D42" s="148" t="s">
         <v>449</v>
@@ -5605,7 +5605,7 @@
       <c r="F42" s="148"/>
     </row>
     <row r="43" spans="2:6" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="165"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="148"/>
       <c r="D43" s="148" t="s">
         <v>450</v>
@@ -5831,13 +5831,13 @@
       <c r="J11" s="102"/>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
       <c r="P11" s="102"/>
       <c r="Q11" s="102"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="160"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="171"/>
     </row>
     <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G12" s="27"/>
@@ -6043,9 +6043,9 @@
       <c r="W23" s="102"/>
     </row>
     <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G24" s="158"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
       <c r="J24" s="102"/>
       <c r="K24" s="102"/>
       <c r="L24" s="102"/>
@@ -6081,9 +6081,9 @@
       <c r="W25" s="102"/>
     </row>
     <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G26" s="158"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
       <c r="L26" s="102"/>
@@ -6128,14 +6128,14 @@
       <c r="M28" s="102"/>
       <c r="N28" s="102"/>
       <c r="O28" s="102"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
       <c r="S28" s="102"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6177,14 +6177,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="100"/>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
@@ -6307,12 +6307,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -6335,10 +6335,10 @@
       <c r="E6" s="103"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="158"/>
       <c r="G7" s="103" t="s">
         <v>103</v>
       </c>
@@ -6447,13 +6447,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="105"/>
       <c r="C1" s="106"/>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="105"/>
@@ -6617,12 +6617,12 @@
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="92"/>
